--- a/notebooks/Final/Calcl.xlsx
+++ b/notebooks/Final/Calcl.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.38</v>
+        <v>13.44</v>
       </c>
       <c r="D2" t="n">
         <v>859353984</v>
@@ -646,64 +646,64 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.98</v>
+        <v>12.57</v>
       </c>
       <c r="D3" t="n">
-        <v>1230275968</v>
+        <v>879155008</v>
       </c>
       <c r="E3" t="n">
-        <v>2.479</v>
+        <v>1.769</v>
       </c>
       <c r="F3" t="n">
-        <v>405246016</v>
+        <v>570662976</v>
       </c>
       <c r="G3" t="n">
-        <v>1168755968</v>
+        <v>1119886976</v>
       </c>
       <c r="H3" t="n">
-        <v>0.675</v>
+        <v>0.777</v>
       </c>
       <c r="I3" t="n">
-        <v>1.609</v>
+        <v>1.554</v>
       </c>
       <c r="J3" t="n">
-        <v>6364569088</v>
+        <v>6885838848</v>
       </c>
       <c r="K3" t="n">
-        <v>45.072</v>
+        <v>39.733</v>
       </c>
       <c r="L3" t="n">
-        <v>12.847</v>
+        <v>13.887</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04606</v>
+        <v>0.06414</v>
       </c>
       <c r="N3" t="n">
-        <v>0.22077999</v>
+        <v>0.22599001</v>
       </c>
       <c r="O3" t="n">
-        <v>701054000</v>
+        <v>1043299000</v>
       </c>
       <c r="P3" t="n">
-        <v>-542673984</v>
+        <v>-733764224</v>
       </c>
       <c r="Q3" t="n">
-        <v>349136000</v>
+        <v>257696992</v>
       </c>
       <c r="R3" t="n">
-        <v>0.133</v>
+        <v>0.319</v>
       </c>
       <c r="S3" t="n">
-        <v>0.13319999</v>
+        <v>0.15151</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06367</v>
+        <v>0.08287</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05894</v>
+        <v>0.07808</v>
       </c>
       <c r="V3" t="n">
-        <v>0.080790006</v>
+        <v>0.08298999999999999</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.699</v>
+        <v>0.342</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.52</v>
+        <v>11.19</v>
       </c>
       <c r="D4" t="n">
         <v>76976000</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.33</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>1272550016</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.73</v>
+        <v>11.84</v>
       </c>
       <c r="D6" t="n">
         <v>1295590016</v>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28.46</v>
+        <v>28.8</v>
       </c>
       <c r="D7" t="n">
         <v>763532992</v>
@@ -1049,64 +1049,64 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18.85</v>
+        <v>18.39</v>
       </c>
       <c r="D8" t="n">
-        <v>4209999872</v>
+        <v>5869000192</v>
       </c>
       <c r="E8" t="n">
-        <v>3.122</v>
+        <v>4.35</v>
       </c>
       <c r="F8" t="n">
-        <v>3272000000</v>
+        <v>3497999872</v>
       </c>
       <c r="G8" t="n">
-        <v>19938000896</v>
+        <v>20950999040</v>
       </c>
       <c r="H8" t="n">
-        <v>0.434</v>
+        <v>0.46</v>
       </c>
       <c r="I8" t="n">
-        <v>0.909</v>
+        <v>0.864</v>
       </c>
       <c r="J8" t="n">
-        <v>50121998336</v>
+        <v>54520000512</v>
       </c>
       <c r="K8" t="n">
-        <v>554.604</v>
+        <v>537.7569999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>25.002</v>
+        <v>40.445</v>
       </c>
       <c r="M8" t="n">
-        <v>0.059559997</v>
+        <v>0.056950003</v>
       </c>
       <c r="N8" t="n">
-        <v>0.44722</v>
+        <v>0.36626</v>
       </c>
       <c r="O8" t="n">
-        <v>7145000000</v>
+        <v>8963000000</v>
       </c>
       <c r="P8" t="n">
-        <v>-649121984</v>
+        <v>2370263040</v>
       </c>
       <c r="Q8" t="n">
-        <v>5054000128</v>
+        <v>5144000000</v>
       </c>
       <c r="R8" t="n">
-        <v>0.275</v>
+        <v>0.381</v>
       </c>
       <c r="S8" t="n">
-        <v>0.16388</v>
+        <v>0.16440001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06528</v>
+        <v>0.06415999999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>0.054369997</v>
+        <v>0.053039998</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02675</v>
+        <v>0.02238</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>-0.67</v>
+        <v>1.292</v>
       </c>
       <c r="Y8" t="n">
         <v>26</v>
@@ -1130,64 +1130,64 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.3</v>
+        <v>6.93</v>
       </c>
       <c r="D9" t="n">
-        <v>670598976</v>
+        <v>873211008</v>
       </c>
       <c r="E9" t="n">
-        <v>2.357</v>
+        <v>3.069</v>
       </c>
       <c r="F9" t="n">
-        <v>899121024</v>
+        <v>971616000</v>
       </c>
       <c r="G9" t="n">
-        <v>4269693952</v>
+        <v>4740550144</v>
       </c>
       <c r="H9" t="n">
-        <v>1.725</v>
+        <v>1.264</v>
       </c>
       <c r="I9" t="n">
-        <v>1.866</v>
+        <v>1.368</v>
       </c>
       <c r="J9" t="n">
-        <v>5687723008</v>
+        <v>6022405120</v>
       </c>
       <c r="K9" t="n">
-        <v>307.54</v>
+        <v>335.587</v>
       </c>
       <c r="L9" t="n">
-        <v>26.467</v>
+        <v>28.265</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06403</v>
+        <v>0.06257</v>
       </c>
       <c r="N9" t="n">
-        <v>0.11305001</v>
+        <v>0.14161</v>
       </c>
       <c r="O9" t="n">
-        <v>660666000</v>
+        <v>1041048000</v>
       </c>
       <c r="P9" t="n">
-        <v>207249376</v>
+        <v>784898368</v>
       </c>
       <c r="Q9" t="n">
-        <v>124350000</v>
+        <v>755264000</v>
       </c>
       <c r="R9" t="n">
-        <v>0.38</v>
+        <v>0.252</v>
       </c>
       <c r="S9" t="n">
-        <v>0.16534</v>
+        <v>0.17286</v>
       </c>
       <c r="T9" t="n">
-        <v>0.15808</v>
+        <v>0.16133</v>
       </c>
       <c r="U9" t="n">
-        <v>0.12316</v>
+        <v>0.1277</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02716</v>
+        <v>0.03224</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>-0.55</v>
+        <v>0.738</v>
       </c>
       <c r="Y9" t="n">
         <v>27</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="D10" t="n">
         <v>928204992</v>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14.7</v>
+        <v>14.12</v>
       </c>
       <c r="D11" t="n">
         <v>546473024</v>
@@ -1373,71 +1373,73 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="D12" t="n">
-        <v>1654043008</v>
+        <v>967787008</v>
       </c>
       <c r="E12" t="n">
-        <v>5.613</v>
+        <v>3.302</v>
       </c>
       <c r="F12" t="n">
-        <v>1102230016</v>
+        <v>1042262976</v>
       </c>
       <c r="G12" t="n">
-        <v>2862161920</v>
+        <v>3075621120</v>
       </c>
       <c r="H12" t="n">
-        <v>2.513</v>
+        <v>1.593</v>
       </c>
       <c r="I12" t="n">
-        <v>3.687</v>
+        <v>2.862</v>
       </c>
       <c r="J12" t="n">
-        <v>1665268992</v>
+        <v>1814168064</v>
       </c>
       <c r="K12" t="n">
-        <v>170.728</v>
+        <v>144.717</v>
       </c>
       <c r="L12" t="n">
-        <v>5.652</v>
+        <v>6.165</v>
       </c>
       <c r="M12" t="n">
-        <v>0.097799994</v>
+        <v>0.06920999999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>0.40236</v>
+        <v>0.49879003</v>
       </c>
       <c r="O12" t="n">
         <v>755332000</v>
       </c>
       <c r="P12" t="n">
-        <v>91650496</v>
+        <v>-28580124</v>
       </c>
       <c r="Q12" t="n">
-        <v>608032000</v>
+        <v>745331008</v>
       </c>
       <c r="R12" t="n">
-        <v>0.455</v>
+        <v>0.413</v>
       </c>
       <c r="S12" t="n">
-        <v>0.43133998</v>
+        <v>0.29099</v>
       </c>
       <c r="T12" t="n">
-        <v>0.66189003</v>
+        <v>0.57451</v>
       </c>
       <c r="U12" t="n">
-        <v>0.41647</v>
+        <v>0.2947</v>
       </c>
       <c r="V12" t="n">
-        <v>0.34829</v>
+        <v>0.47474</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>1.665</v>
+      </c>
       <c r="Y12" t="n">
         <v>35</v>
       </c>
@@ -1452,64 +1454,64 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14.59</v>
+        <v>13.31</v>
       </c>
       <c r="D13" t="n">
-        <v>3136510976</v>
+        <v>1723010944</v>
       </c>
       <c r="E13" t="n">
-        <v>3.083</v>
+        <v>1.693</v>
       </c>
       <c r="F13" t="n">
-        <v>1654354944</v>
+        <v>1917352960</v>
       </c>
       <c r="G13" t="n">
-        <v>7834908160</v>
+        <v>7959757824</v>
       </c>
       <c r="H13" t="n">
-        <v>1.445</v>
+        <v>0.729</v>
       </c>
       <c r="I13" t="n">
-        <v>1.722</v>
+        <v>0.969</v>
       </c>
       <c r="J13" t="n">
-        <v>4329248768</v>
+        <v>4913454080</v>
       </c>
       <c r="K13" t="n">
-        <v>214.317</v>
+        <v>218.741</v>
       </c>
       <c r="L13" t="n">
-        <v>4.154</v>
+        <v>5.002</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07653</v>
+        <v>0.075</v>
       </c>
       <c r="N13" t="n">
-        <v>0.16669</v>
+        <v>0.21297</v>
       </c>
       <c r="O13" t="n">
-        <v>1033250000</v>
+        <v>2092403000</v>
       </c>
       <c r="P13" t="n">
-        <v>970869760</v>
+        <v>1977686656</v>
       </c>
       <c r="Q13" t="n">
-        <v>-5199758848</v>
+        <v>-2318971904</v>
       </c>
       <c r="R13" t="n">
-        <v>0.66</v>
+        <v>0.724</v>
       </c>
       <c r="S13" t="n">
-        <v>0.41511002</v>
+        <v>0.42585</v>
       </c>
       <c r="T13" t="n">
-        <v>0.38213003</v>
+        <v>0.39023</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3194</v>
+        <v>0.32803002</v>
       </c>
       <c r="V13" t="n">
-        <v>0.12291</v>
+        <v>0.13608</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1517,7 +1519,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.236</v>
+        <v>1.057</v>
       </c>
       <c r="Y13" t="n">
         <v>38</v>
@@ -1533,7 +1535,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29.5</v>
+        <v>28.69</v>
       </c>
       <c r="D14" t="n">
         <v>903052032</v>
@@ -1614,7 +1616,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="D15" t="n">
         <v>268671008</v>
@@ -1691,79 +1693,77 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GMAT3.SA</t>
+          <t>RRRP3.SA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.25</v>
+        <v>39.14</v>
       </c>
       <c r="D16" t="n">
-        <v>694792000</v>
+        <v>1326206976</v>
       </c>
       <c r="E16" t="n">
-        <v>0.314</v>
+        <v>6.546</v>
       </c>
       <c r="F16" t="n">
-        <v>1414308992</v>
+        <v>656467008</v>
       </c>
       <c r="G16" t="n">
-        <v>3158714112</v>
+        <v>1096093952</v>
       </c>
       <c r="H16" t="n">
-        <v>1.439</v>
+        <v>1.69</v>
       </c>
       <c r="I16" t="n">
-        <v>3.571</v>
+        <v>1.879</v>
       </c>
       <c r="J16" t="n">
-        <v>20145016832</v>
+        <v>1527308032</v>
       </c>
       <c r="K16" t="n">
-        <v>43.681</v>
+        <v>25.062</v>
       </c>
       <c r="L16" t="n">
-        <v>9.118</v>
+        <v>7.453</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06967</v>
+        <v>0.04592</v>
       </c>
       <c r="N16" t="n">
-        <v>0.14257</v>
+        <v>0.05949</v>
       </c>
       <c r="O16" t="n">
-        <v>3702442000</v>
+        <v>408269000</v>
       </c>
       <c r="P16" t="n">
-        <v>-1807041792</v>
+        <v>-1168412800</v>
       </c>
       <c r="Q16" t="n">
-        <v>-120054000</v>
+        <v>49137000</v>
       </c>
       <c r="R16" t="n">
-        <v>0.362</v>
+        <v>1.614</v>
       </c>
       <c r="S16" t="n">
-        <v>0.22389</v>
+        <v>0.55994</v>
       </c>
       <c r="T16" t="n">
-        <v>0.07020999999999999</v>
+        <v>0.42981997</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05974</v>
+        <v>0.28162</v>
       </c>
       <c r="V16" t="n">
-        <v>0.04721</v>
+        <v>0.14228</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="X16" t="n">
-        <v>0.083</v>
-      </c>
+      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1772,68 +1772,68 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOAS3.SA</t>
+          <t>GMAT3.SA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7.66</v>
+        <v>5.78</v>
       </c>
       <c r="D17" t="n">
-        <v>1346258048</v>
+        <v>694792000</v>
       </c>
       <c r="E17" t="n">
-        <v>2.538</v>
+        <v>0.314</v>
       </c>
       <c r="F17" t="n">
-        <v>411319008</v>
+        <v>1414308992</v>
       </c>
       <c r="G17" t="n">
-        <v>31366000</v>
+        <v>3158714112</v>
       </c>
       <c r="H17" t="n">
-        <v>5.16</v>
+        <v>1.439</v>
       </c>
       <c r="I17" t="n">
-        <v>5.231</v>
+        <v>3.571</v>
       </c>
       <c r="J17" t="n">
-        <v>857664000</v>
+        <v>20145016832</v>
       </c>
       <c r="K17" t="n">
-        <v>1.414</v>
+        <v>43.681</v>
       </c>
       <c r="L17" t="n">
-        <v>1.614</v>
+        <v>9.118</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06059</v>
+        <v>0.06967</v>
       </c>
       <c r="N17" t="n">
-        <v>0.12623</v>
+        <v>0.14257</v>
       </c>
       <c r="O17" t="n">
-        <v>336527000</v>
+        <v>3702442000</v>
       </c>
       <c r="P17" t="n">
-        <v>259839504</v>
+        <v>-1807041792</v>
       </c>
       <c r="Q17" t="n">
-        <v>484721984</v>
+        <v>-120054000</v>
       </c>
       <c r="R17" t="n">
-        <v>0.105</v>
+        <v>0.362</v>
       </c>
       <c r="S17" t="n">
-        <v>0.50319</v>
+        <v>0.22389</v>
       </c>
       <c r="T17" t="n">
-        <v>0.47958001</v>
+        <v>0.07020999999999999</v>
       </c>
       <c r="U17" t="n">
-        <v>0.29587</v>
+        <v>0.05974</v>
       </c>
       <c r="V17" t="n">
-        <v>0.31053</v>
+        <v>0.04721</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.279</v>
+        <v>0.083</v>
       </c>
       <c r="Y17" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -1853,68 +1853,68 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MELK3.SA</t>
+          <t>BOAS3.SA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.9</v>
+        <v>7.65</v>
       </c>
       <c r="D18" t="n">
-        <v>337625984</v>
+        <v>1346258048</v>
       </c>
       <c r="E18" t="n">
-        <v>1.67</v>
+        <v>2.538</v>
       </c>
       <c r="F18" t="n">
-        <v>107006000</v>
+        <v>411319008</v>
       </c>
       <c r="G18" t="n">
-        <v>138436992</v>
+        <v>31366000</v>
       </c>
       <c r="H18" t="n">
-        <v>0.904</v>
+        <v>5.16</v>
       </c>
       <c r="I18" t="n">
-        <v>2.308</v>
+        <v>5.231</v>
       </c>
       <c r="J18" t="n">
-        <v>1054971008</v>
+        <v>857664000</v>
       </c>
       <c r="K18" t="n">
-        <v>10.662</v>
+        <v>1.414</v>
       </c>
       <c r="L18" t="n">
-        <v>5.218</v>
+        <v>1.614</v>
       </c>
       <c r="M18" t="n">
-        <v>0.030769998</v>
+        <v>0.06059</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1125</v>
+        <v>0.12623</v>
       </c>
       <c r="O18" t="n">
-        <v>185024000</v>
+        <v>336527000</v>
       </c>
       <c r="P18" t="n">
-        <v>49836752</v>
+        <v>259839504</v>
       </c>
       <c r="Q18" t="n">
-        <v>-151242000</v>
+        <v>484721984</v>
       </c>
       <c r="R18" t="n">
-        <v>0.642</v>
+        <v>0.105</v>
       </c>
       <c r="S18" t="n">
-        <v>0.23622999</v>
+        <v>0.50319</v>
       </c>
       <c r="T18" t="n">
-        <v>0.10143</v>
+        <v>0.47958001</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09726</v>
+        <v>0.29587</v>
       </c>
       <c r="V18" t="n">
-        <v>0.10526</v>
+        <v>0.31053</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.17</v>
+        <v>0.279</v>
       </c>
       <c r="Y18" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1934,68 +1934,68 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CURY3.SA</t>
+          <t>MELK3.SA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12.59</v>
+        <v>3.04</v>
       </c>
       <c r="D19" t="n">
-        <v>467612000</v>
+        <v>337625984</v>
       </c>
       <c r="E19" t="n">
-        <v>1.613</v>
+        <v>1.67</v>
       </c>
       <c r="F19" t="n">
-        <v>448415008</v>
+        <v>107006000</v>
       </c>
       <c r="G19" t="n">
-        <v>456020992</v>
+        <v>138436992</v>
       </c>
       <c r="H19" t="n">
-        <v>1.392</v>
+        <v>0.904</v>
       </c>
       <c r="I19" t="n">
-        <v>2.051</v>
+        <v>2.308</v>
       </c>
       <c r="J19" t="n">
-        <v>2168038912</v>
+        <v>1054971008</v>
       </c>
       <c r="K19" t="n">
-        <v>52.276</v>
+        <v>10.662</v>
       </c>
       <c r="L19" t="n">
-        <v>7.428</v>
+        <v>5.218</v>
       </c>
       <c r="M19" t="n">
-        <v>0.107889995</v>
+        <v>0.030769998</v>
       </c>
       <c r="N19" t="n">
-        <v>0.44529</v>
+        <v>0.1125</v>
       </c>
       <c r="O19" t="n">
-        <v>644671000</v>
+        <v>185024000</v>
       </c>
       <c r="P19" t="n">
-        <v>129941872</v>
+        <v>49836752</v>
       </c>
       <c r="Q19" t="n">
-        <v>404600992</v>
+        <v>-151242000</v>
       </c>
       <c r="R19" t="n">
-        <v>0.373</v>
+        <v>0.642</v>
       </c>
       <c r="S19" t="n">
-        <v>0.36973</v>
+        <v>0.23622999</v>
       </c>
       <c r="T19" t="n">
-        <v>0.20683001</v>
+        <v>0.10143</v>
       </c>
       <c r="U19" t="n">
-        <v>0.19754</v>
+        <v>0.09726</v>
       </c>
       <c r="V19" t="n">
-        <v>0.15767999</v>
+        <v>0.10526</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.333</v>
+        <v>0.17</v>
       </c>
       <c r="Y19" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -2015,68 +2015,68 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLPL3.SA</t>
+          <t>CURY3.SA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.36</v>
+        <v>12.45</v>
       </c>
       <c r="D20" t="n">
-        <v>191167008</v>
+        <v>467612000</v>
       </c>
       <c r="E20" t="n">
-        <v>0.964</v>
+        <v>1.613</v>
       </c>
       <c r="F20" t="n">
-        <v>153350000</v>
+        <v>448415008</v>
       </c>
       <c r="G20" t="n">
-        <v>469000000</v>
+        <v>456020992</v>
       </c>
       <c r="H20" t="n">
-        <v>1.53</v>
+        <v>1.392</v>
       </c>
       <c r="I20" t="n">
-        <v>4.507</v>
+        <v>2.051</v>
       </c>
       <c r="J20" t="n">
-        <v>1354068992</v>
+        <v>2168038912</v>
       </c>
       <c r="K20" t="n">
-        <v>122.241</v>
+        <v>52.276</v>
       </c>
       <c r="L20" t="n">
-        <v>6.786</v>
+        <v>7.428</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06235</v>
+        <v>0.107889995</v>
       </c>
       <c r="N20" t="n">
-        <v>0.29033002</v>
+        <v>0.44529</v>
       </c>
       <c r="O20" t="n">
-        <v>396769000</v>
+        <v>644671000</v>
       </c>
       <c r="P20" t="n">
-        <v>-134297376</v>
+        <v>129941872</v>
       </c>
       <c r="Q20" t="n">
-        <v>58601000</v>
+        <v>404600992</v>
       </c>
       <c r="R20" t="n">
-        <v>0.221</v>
+        <v>0.373</v>
       </c>
       <c r="S20" t="n">
-        <v>0.28108</v>
+        <v>0.36973</v>
       </c>
       <c r="T20" t="n">
-        <v>0.113249995</v>
+        <v>0.20683001</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09754</v>
+        <v>0.19754</v>
       </c>
       <c r="V20" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.15767999</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>-0.144</v>
+        <v>0.333</v>
       </c>
       <c r="Y20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -2096,68 +2096,68 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PETZ3.SA</t>
+          <t>PLPL3.SA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.9</v>
+        <v>4.48</v>
       </c>
       <c r="D21" t="n">
-        <v>262412992</v>
+        <v>191167008</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.964</v>
       </c>
       <c r="F21" t="n">
-        <v>237991008</v>
+        <v>153350000</v>
       </c>
       <c r="G21" t="n">
-        <v>1165281024</v>
+        <v>469000000</v>
       </c>
       <c r="H21" t="n">
-        <v>1.052</v>
+        <v>1.53</v>
       </c>
       <c r="I21" t="n">
-        <v>1.669</v>
+        <v>4.507</v>
       </c>
       <c r="J21" t="n">
-        <v>2638740992</v>
+        <v>1354068992</v>
       </c>
       <c r="K21" t="n">
-        <v>63.637</v>
+        <v>122.241</v>
       </c>
       <c r="L21" t="n">
-        <v>5.881</v>
+        <v>6.786</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03111</v>
+        <v>0.06235</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0498</v>
+        <v>0.29033002</v>
       </c>
       <c r="O21" t="n">
-        <v>1012866000</v>
+        <v>396769000</v>
       </c>
       <c r="P21" t="n">
-        <v>-269870624</v>
+        <v>-134297376</v>
       </c>
       <c r="Q21" t="n">
-        <v>129519000</v>
+        <v>58601000</v>
       </c>
       <c r="R21" t="n">
-        <v>0.357</v>
+        <v>0.221</v>
       </c>
       <c r="S21" t="n">
-        <v>0.48685002</v>
+        <v>0.28108</v>
       </c>
       <c r="T21" t="n">
-        <v>0.09019000000000001</v>
+        <v>0.113249995</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05286</v>
+        <v>0.09754</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0228</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2165,10 +2165,10 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>-0.594</v>
+        <v>-0.144</v>
       </c>
       <c r="Y21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
@@ -2177,68 +2177,68 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PGMN3.SA</t>
+          <t>PETZ3.SA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.78</v>
+        <v>6.68</v>
       </c>
       <c r="D22" t="n">
-        <v>252800992</v>
+        <v>262412992</v>
       </c>
       <c r="E22" t="n">
-        <v>0.573</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>596686016</v>
+        <v>237991008</v>
       </c>
       <c r="G22" t="n">
-        <v>3367226880</v>
+        <v>1165281024</v>
       </c>
       <c r="H22" t="n">
-        <v>0.461</v>
+        <v>1.052</v>
       </c>
       <c r="I22" t="n">
-        <v>1.474</v>
+        <v>1.669</v>
       </c>
       <c r="J22" t="n">
-        <v>8477024768</v>
+        <v>2638740992</v>
       </c>
       <c r="K22" t="n">
-        <v>148.947</v>
+        <v>63.637</v>
       </c>
       <c r="L22" t="n">
-        <v>19.102</v>
+        <v>5.881</v>
       </c>
       <c r="M22" t="n">
-        <v>0.044239998</v>
+        <v>0.03111</v>
       </c>
       <c r="N22" t="n">
-        <v>0.08413000399999999</v>
+        <v>0.0498</v>
       </c>
       <c r="O22" t="n">
-        <v>2420563000</v>
+        <v>1012866000</v>
       </c>
       <c r="P22" t="n">
-        <v>-123078128</v>
+        <v>-269870624</v>
       </c>
       <c r="Q22" t="n">
-        <v>343283008</v>
+        <v>129519000</v>
       </c>
       <c r="R22" t="n">
-        <v>0.302</v>
+        <v>0.357</v>
       </c>
       <c r="S22" t="n">
-        <v>0.32056</v>
+        <v>0.48685002</v>
       </c>
       <c r="T22" t="n">
-        <v>0.07038999999999999</v>
+        <v>0.09019000000000001</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05856</v>
+        <v>0.05286</v>
       </c>
       <c r="V22" t="n">
-        <v>0.00245</v>
+        <v>0.0228</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>1.714</v>
+        <v>-0.594</v>
       </c>
       <c r="Y22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -2258,77 +2258,79 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LJQQ3.SA</t>
+          <t>PGMN3.SA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.32</v>
+        <v>3.48</v>
       </c>
       <c r="D23" t="n">
-        <v>418776992</v>
+        <v>252800992</v>
       </c>
       <c r="E23" t="n">
-        <v>2.236</v>
+        <v>0.573</v>
       </c>
       <c r="F23" t="n">
-        <v>135236992</v>
+        <v>596686016</v>
       </c>
       <c r="G23" t="n">
-        <v>1567649024</v>
+        <v>3367226880</v>
       </c>
       <c r="H23" t="n">
-        <v>1.428</v>
+        <v>0.461</v>
       </c>
       <c r="I23" t="n">
-        <v>1.905</v>
+        <v>1.474</v>
       </c>
       <c r="J23" t="n">
-        <v>2260951040</v>
+        <v>8477024768</v>
       </c>
       <c r="K23" t="n">
-        <v>301.257</v>
+        <v>148.947</v>
       </c>
       <c r="L23" t="n">
-        <v>12.072</v>
+        <v>19.102</v>
       </c>
       <c r="M23" t="n">
-        <v>0.024449999</v>
+        <v>0.044239998</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0053399997</v>
+        <v>0.08413000399999999</v>
       </c>
       <c r="O23" t="n">
-        <v>793943000</v>
+        <v>2420563000</v>
       </c>
       <c r="P23" t="n">
-        <v>-132409128</v>
+        <v>-123078128</v>
       </c>
       <c r="Q23" t="n">
-        <v>164308000</v>
+        <v>343283008</v>
       </c>
       <c r="R23" t="n">
-        <v>0.116</v>
+        <v>0.302</v>
       </c>
       <c r="S23" t="n">
-        <v>0.34352002</v>
+        <v>0.32056</v>
       </c>
       <c r="T23" t="n">
-        <v>0.059809998</v>
+        <v>0.07038999999999999</v>
       </c>
       <c r="U23" t="n">
-        <v>0.047069997</v>
+        <v>0.05856</v>
       </c>
       <c r="V23" t="n">
-        <v>0.00124</v>
+        <v>0.00245</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>1.714</v>
+      </c>
       <c r="Y23" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -2337,79 +2339,77 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SOMA3.SA</t>
+          <t>LJQQ3.SA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.539999999999999</v>
+        <v>4.07</v>
       </c>
       <c r="D24" t="n">
-        <v>165614000</v>
+        <v>418776992</v>
       </c>
       <c r="E24" t="n">
-        <v>0.211</v>
+        <v>2.236</v>
       </c>
       <c r="F24" t="n">
-        <v>517224992</v>
+        <v>135236992</v>
       </c>
       <c r="G24" t="n">
-        <v>1130867968</v>
+        <v>1567649024</v>
       </c>
       <c r="H24" t="n">
-        <v>1.092</v>
+        <v>1.428</v>
       </c>
       <c r="I24" t="n">
-        <v>1.979</v>
+        <v>1.905</v>
       </c>
       <c r="J24" t="n">
-        <v>4730201088</v>
+        <v>2260951040</v>
       </c>
       <c r="K24" t="n">
-        <v>15.254</v>
+        <v>301.257</v>
       </c>
       <c r="L24" t="n">
-        <v>6.158</v>
+        <v>12.072</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02328</v>
+        <v>0.024449999</v>
       </c>
       <c r="N24" t="n">
-        <v>0.042179998</v>
+        <v>0.0053399997</v>
       </c>
       <c r="O24" t="n">
-        <v>1618468000</v>
+        <v>793943000</v>
       </c>
       <c r="P24" t="n">
-        <v>-90620376</v>
+        <v>-132409128</v>
       </c>
       <c r="Q24" t="n">
-        <v>215724000</v>
+        <v>164308000</v>
       </c>
       <c r="R24" t="n">
-        <v>0.806</v>
+        <v>0.116</v>
       </c>
       <c r="S24" t="n">
-        <v>0.5579600300000001</v>
+        <v>0.34352002</v>
       </c>
       <c r="T24" t="n">
-        <v>0.10934</v>
+        <v>0.059809998</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07847</v>
+        <v>0.047069997</v>
       </c>
       <c r="V24" t="n">
-        <v>0.06505</v>
+        <v>0.00124</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="X24" t="n">
-        <v>-0.316</v>
-      </c>
+      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -2418,68 +2418,68 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AMBP3.SA</t>
+          <t>SOMA3.SA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.58</v>
+        <v>9.01</v>
       </c>
       <c r="D25" t="n">
-        <v>2381427968</v>
+        <v>165614000</v>
       </c>
       <c r="E25" t="n">
-        <v>21.087</v>
+        <v>0.211</v>
       </c>
       <c r="F25" t="n">
-        <v>794844992</v>
+        <v>517224992</v>
       </c>
       <c r="G25" t="n">
-        <v>5549214208</v>
+        <v>1130867968</v>
       </c>
       <c r="H25" t="n">
-        <v>2.061</v>
+        <v>1.092</v>
       </c>
       <c r="I25" t="n">
-        <v>2.366</v>
+        <v>1.979</v>
       </c>
       <c r="J25" t="n">
-        <v>3281179904</v>
+        <v>4730201088</v>
       </c>
       <c r="K25" t="n">
-        <v>441.886</v>
+        <v>15.254</v>
       </c>
       <c r="L25" t="n">
-        <v>29.054</v>
+        <v>6.158</v>
       </c>
       <c r="M25" t="n">
-        <v>0.056199998</v>
+        <v>0.02328</v>
       </c>
       <c r="N25" t="n">
-        <v>0.10778</v>
+        <v>0.042179998</v>
       </c>
       <c r="O25" t="n">
-        <v>416560000</v>
+        <v>1618468000</v>
       </c>
       <c r="P25" t="n">
-        <v>-347300736</v>
+        <v>-90620376</v>
       </c>
       <c r="Q25" t="n">
-        <v>-13799000</v>
+        <v>215724000</v>
       </c>
       <c r="R25" t="n">
-        <v>0.591</v>
+        <v>0.806</v>
       </c>
       <c r="S25" t="n">
-        <v>0.21942</v>
+        <v>0.5579600300000001</v>
       </c>
       <c r="T25" t="n">
-        <v>0.24224001</v>
+        <v>0.10934</v>
       </c>
       <c r="U25" t="n">
-        <v>0.17499</v>
+        <v>0.07847</v>
       </c>
       <c r="V25" t="n">
-        <v>0.028080001</v>
+        <v>0.06505</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2487,10 +2487,10 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>-0.741</v>
+        <v>-0.316</v>
       </c>
       <c r="Y25" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
@@ -2499,68 +2499,68 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MTRE3.SA</t>
+          <t>AMBP3.SA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.16</v>
+        <v>20.59</v>
       </c>
       <c r="D26" t="n">
-        <v>286356992</v>
+        <v>2381427968</v>
       </c>
       <c r="E26" t="n">
-        <v>2.707</v>
+        <v>21.087</v>
       </c>
       <c r="F26" t="n">
-        <v>37516000</v>
+        <v>794844992</v>
       </c>
       <c r="G26" t="n">
-        <v>482846016</v>
+        <v>5549214208</v>
       </c>
       <c r="H26" t="n">
-        <v>1.302</v>
+        <v>2.061</v>
       </c>
       <c r="I26" t="n">
-        <v>2.917</v>
+        <v>2.366</v>
       </c>
       <c r="J26" t="n">
-        <v>665342016</v>
+        <v>3281179904</v>
       </c>
       <c r="K26" t="n">
-        <v>48.091</v>
+        <v>441.886</v>
       </c>
       <c r="L26" t="n">
-        <v>6.29</v>
+        <v>29.054</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01159</v>
+        <v>0.056199998</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03957</v>
+        <v>0.10778</v>
       </c>
       <c r="O26" t="n">
-        <v>195726000</v>
+        <v>416560000</v>
       </c>
       <c r="P26" t="n">
-        <v>-372142112</v>
+        <v>-347300736</v>
       </c>
       <c r="Q26" t="n">
-        <v>-389392992</v>
+        <v>-13799000</v>
       </c>
       <c r="R26" t="n">
-        <v>0.112</v>
+        <v>0.591</v>
       </c>
       <c r="S26" t="n">
-        <v>0.31051</v>
+        <v>0.21942</v>
       </c>
       <c r="T26" t="n">
-        <v>0.05639</v>
+        <v>0.24224001</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0493</v>
+        <v>0.17499</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0548</v>
+        <v>0.028080001</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2568,10 +2568,10 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>1.82</v>
+        <v>-0.741</v>
       </c>
       <c r="Y26" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -2580,68 +2580,68 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MDNE3.SA</t>
+          <t>MTRE3.SA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.47</v>
+        <v>3.81</v>
       </c>
       <c r="D27" t="n">
-        <v>179172992</v>
+        <v>286356992</v>
       </c>
       <c r="E27" t="n">
-        <v>2.15</v>
+        <v>2.707</v>
       </c>
       <c r="F27" t="n">
-        <v>115733000</v>
+        <v>37516000</v>
       </c>
       <c r="G27" t="n">
-        <v>104801000</v>
+        <v>482846016</v>
       </c>
       <c r="H27" t="n">
-        <v>1.351</v>
+        <v>1.302</v>
       </c>
       <c r="I27" t="n">
-        <v>2.501</v>
+        <v>2.917</v>
       </c>
       <c r="J27" t="n">
-        <v>734936000</v>
+        <v>665342016</v>
       </c>
       <c r="K27" t="n">
-        <v>8.972</v>
+        <v>48.091</v>
       </c>
       <c r="L27" t="n">
-        <v>8.712</v>
+        <v>6.29</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02629</v>
+        <v>0.01159</v>
       </c>
       <c r="N27" t="n">
-        <v>0.09798</v>
+        <v>0.03957</v>
       </c>
       <c r="O27" t="n">
-        <v>225763000</v>
+        <v>195726000</v>
       </c>
       <c r="P27" t="n">
-        <v>109907128</v>
+        <v>-372142112</v>
       </c>
       <c r="Q27" t="n">
-        <v>77198000</v>
+        <v>-389392992</v>
       </c>
       <c r="R27" t="n">
-        <v>0.314</v>
+        <v>0.112</v>
       </c>
       <c r="S27" t="n">
-        <v>0.36236</v>
+        <v>0.31051</v>
       </c>
       <c r="T27" t="n">
-        <v>0.15747</v>
+        <v>0.05639</v>
       </c>
       <c r="U27" t="n">
-        <v>0.15076</v>
+        <v>0.0493</v>
       </c>
       <c r="V27" t="n">
-        <v>0.14973</v>
+        <v>0.0548</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.594</v>
+        <v>1.82</v>
       </c>
       <c r="Y27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -2661,68 +2661,68 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RDNI3.SA</t>
+          <t>MDNE3.SA</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.99</v>
+        <v>5.37</v>
       </c>
       <c r="D28" t="n">
-        <v>58579000</v>
+        <v>179172992</v>
       </c>
       <c r="E28" t="n">
-        <v>1.388</v>
+        <v>2.15</v>
       </c>
       <c r="F28" t="n">
-        <v>36422000</v>
+        <v>115733000</v>
       </c>
       <c r="G28" t="n">
-        <v>611292992</v>
+        <v>104801000</v>
       </c>
       <c r="H28" t="n">
-        <v>0.835</v>
+        <v>1.351</v>
       </c>
       <c r="I28" t="n">
-        <v>1.427</v>
+        <v>2.501</v>
       </c>
       <c r="J28" t="n">
-        <v>660851968</v>
+        <v>734936000</v>
       </c>
       <c r="K28" t="n">
-        <v>92.511</v>
+        <v>8.972</v>
       </c>
       <c r="L28" t="n">
-        <v>15.659</v>
+        <v>8.712</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01041</v>
+        <v>0.02629</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03787</v>
+        <v>0.09798</v>
       </c>
       <c r="O28" t="n">
-        <v>117870000</v>
+        <v>225763000</v>
       </c>
       <c r="P28" t="n">
-        <v>104627504</v>
+        <v>109907128</v>
       </c>
       <c r="Q28" t="n">
-        <v>-116023000</v>
+        <v>77198000</v>
       </c>
       <c r="R28" t="n">
-        <v>0.418</v>
+        <v>0.314</v>
       </c>
       <c r="S28" t="n">
-        <v>0.24180001</v>
+        <v>0.36236</v>
       </c>
       <c r="T28" t="n">
-        <v>0.05511</v>
+        <v>0.15747</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05015</v>
+        <v>0.15076</v>
       </c>
       <c r="V28" t="n">
-        <v>0.026080001</v>
+        <v>0.14973</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>1.98</v>
+        <v>0.594</v>
       </c>
       <c r="Y28" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -2742,68 +2742,68 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LEVE3.SA</t>
+          <t>RDNI3.SA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>33.95</v>
+        <v>5.94</v>
       </c>
       <c r="D29" t="n">
-        <v>284412992</v>
+        <v>58579000</v>
       </c>
       <c r="E29" t="n">
-        <v>2.217</v>
+        <v>1.388</v>
       </c>
       <c r="F29" t="n">
-        <v>641787008</v>
+        <v>36422000</v>
       </c>
       <c r="G29" t="n">
-        <v>412094016</v>
+        <v>611292992</v>
       </c>
       <c r="H29" t="n">
-        <v>1.257</v>
+        <v>0.835</v>
       </c>
       <c r="I29" t="n">
-        <v>1.963</v>
+        <v>1.427</v>
       </c>
       <c r="J29" t="n">
-        <v>4049764096</v>
+        <v>660851968</v>
       </c>
       <c r="K29" t="n">
-        <v>25.11</v>
+        <v>92.511</v>
       </c>
       <c r="L29" t="n">
-        <v>31.563</v>
+        <v>15.659</v>
       </c>
       <c r="M29" t="n">
-        <v>0.11639</v>
+        <v>0.01041</v>
       </c>
       <c r="N29" t="n">
-        <v>0.33987</v>
+        <v>0.03787</v>
       </c>
       <c r="O29" t="n">
-        <v>986958000</v>
+        <v>117870000</v>
       </c>
       <c r="P29" t="n">
-        <v>115846872</v>
+        <v>104627504</v>
       </c>
       <c r="Q29" t="n">
-        <v>452048992</v>
+        <v>-116023000</v>
       </c>
       <c r="R29" t="n">
-        <v>0.263</v>
+        <v>0.418</v>
       </c>
       <c r="S29" t="n">
-        <v>0.26434</v>
+        <v>0.24180001</v>
       </c>
       <c r="T29" t="n">
-        <v>0.15847999</v>
+        <v>0.05511</v>
       </c>
       <c r="U29" t="n">
-        <v>0.13933</v>
+        <v>0.05015</v>
       </c>
       <c r="V29" t="n">
-        <v>0.14147</v>
+        <v>0.026080001</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.461</v>
+        <v>1.98</v>
       </c>
       <c r="Y29" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -2823,68 +2823,68 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MYPK3.SA</t>
+          <t>LEVE3.SA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>11.26</v>
+        <v>33.19</v>
       </c>
       <c r="D30" t="n">
-        <v>1642770048</v>
+        <v>284412992</v>
       </c>
       <c r="E30" t="n">
-        <v>10.846</v>
+        <v>2.217</v>
       </c>
       <c r="F30" t="n">
-        <v>1350443008</v>
+        <v>641787008</v>
       </c>
       <c r="G30" t="n">
-        <v>6210975232</v>
+        <v>412094016</v>
       </c>
       <c r="H30" t="n">
-        <v>0.985</v>
+        <v>1.257</v>
       </c>
       <c r="I30" t="n">
-        <v>1.58</v>
+        <v>1.963</v>
       </c>
       <c r="J30" t="n">
-        <v>16575324160</v>
+        <v>4049764096</v>
       </c>
       <c r="K30" t="n">
-        <v>140.804</v>
+        <v>25.11</v>
       </c>
       <c r="L30" t="n">
-        <v>109.077</v>
+        <v>31.563</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03882</v>
+        <v>0.11639</v>
       </c>
       <c r="N30" t="n">
-        <v>0.13764</v>
+        <v>0.33987</v>
       </c>
       <c r="O30" t="n">
-        <v>1704123000</v>
+        <v>986958000</v>
       </c>
       <c r="P30" t="n">
-        <v>200722368</v>
+        <v>115846872</v>
       </c>
       <c r="Q30" t="n">
-        <v>820563008</v>
+        <v>452048992</v>
       </c>
       <c r="R30" t="n">
-        <v>0.205</v>
+        <v>0.263</v>
       </c>
       <c r="S30" t="n">
-        <v>0.11238</v>
+        <v>0.26434</v>
       </c>
       <c r="T30" t="n">
-        <v>0.081470005</v>
+        <v>0.15847999</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05552</v>
+        <v>0.13933</v>
       </c>
       <c r="V30" t="n">
-        <v>0.03101</v>
+        <v>0.14147</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2892,10 +2892,10 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>-0.604</v>
+        <v>0.461</v>
       </c>
       <c r="Y30" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -2904,68 +2904,68 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GRND3.SA</t>
+          <t>MYPK3.SA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.32</v>
+        <v>11.06</v>
       </c>
       <c r="D31" t="n">
-        <v>1132541952</v>
+        <v>1642770048</v>
       </c>
       <c r="E31" t="n">
-        <v>1.256</v>
+        <v>10.846</v>
       </c>
       <c r="F31" t="n">
-        <v>351625984</v>
+        <v>1350443008</v>
       </c>
       <c r="G31" t="n">
-        <v>146264992</v>
+        <v>6210975232</v>
       </c>
       <c r="H31" t="n">
-        <v>5.958</v>
+        <v>0.985</v>
       </c>
       <c r="I31" t="n">
-        <v>7.35</v>
+        <v>1.58</v>
       </c>
       <c r="J31" t="n">
-        <v>2538833920</v>
+        <v>16575324160</v>
       </c>
       <c r="K31" t="n">
-        <v>3.426</v>
+        <v>140.804</v>
       </c>
       <c r="L31" t="n">
-        <v>2.815</v>
+        <v>109.077</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04098</v>
+        <v>0.03882</v>
       </c>
       <c r="N31" t="n">
-        <v>0.14275</v>
+        <v>0.13764</v>
       </c>
       <c r="O31" t="n">
-        <v>1030067000</v>
+        <v>1704123000</v>
       </c>
       <c r="P31" t="n">
-        <v>-60892876</v>
+        <v>200722368</v>
       </c>
       <c r="Q31" t="n">
-        <v>401835008</v>
+        <v>820563008</v>
       </c>
       <c r="R31" t="n">
-        <v>0.063</v>
+        <v>0.205</v>
       </c>
       <c r="S31" t="n">
-        <v>0.40491</v>
+        <v>0.11238</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1385</v>
+        <v>0.081470005</v>
       </c>
       <c r="U31" t="n">
-        <v>0.11835</v>
+        <v>0.05552</v>
       </c>
       <c r="V31" t="n">
-        <v>0.23476</v>
+        <v>0.03101</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -2973,10 +2973,10 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>-0.163</v>
+        <v>-0.604</v>
       </c>
       <c r="Y31" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -2985,68 +2985,68 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DIRR3.SA</t>
+          <t>GRND3.SA</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15.01</v>
+        <v>6.45</v>
       </c>
       <c r="D32" t="n">
-        <v>1179820032</v>
+        <v>1132541952</v>
       </c>
       <c r="E32" t="n">
-        <v>7.919</v>
+        <v>1.256</v>
       </c>
       <c r="F32" t="n">
-        <v>389020992</v>
+        <v>351625984</v>
       </c>
       <c r="G32" t="n">
-        <v>1518194944</v>
+        <v>146264992</v>
       </c>
       <c r="H32" t="n">
-        <v>2.272</v>
+        <v>5.958</v>
       </c>
       <c r="I32" t="n">
-        <v>3.919</v>
+        <v>7.35</v>
       </c>
       <c r="J32" t="n">
-        <v>2115602048</v>
+        <v>2538833920</v>
       </c>
       <c r="K32" t="n">
-        <v>99.526</v>
+        <v>3.426</v>
       </c>
       <c r="L32" t="n">
-        <v>14.279</v>
+        <v>2.815</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03715</v>
+        <v>0.04098</v>
       </c>
       <c r="N32" t="n">
-        <v>0.17004</v>
+        <v>0.14275</v>
       </c>
       <c r="O32" t="n">
-        <v>647106000</v>
+        <v>1030067000</v>
       </c>
       <c r="P32" t="n">
-        <v>-237502368</v>
+        <v>-60892876</v>
       </c>
       <c r="Q32" t="n">
-        <v>230303008</v>
+        <v>401835008</v>
       </c>
       <c r="R32" t="n">
-        <v>0.267</v>
+        <v>0.063</v>
       </c>
       <c r="S32" t="n">
-        <v>0.3538</v>
+        <v>0.40491</v>
       </c>
       <c r="T32" t="n">
-        <v>0.18388</v>
+        <v>0.1385</v>
       </c>
       <c r="U32" t="n">
-        <v>0.16479999</v>
+        <v>0.11835</v>
       </c>
       <c r="V32" t="n">
-        <v>0.08341999999999999</v>
+        <v>0.23476</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.312</v>
+        <v>-0.163</v>
       </c>
       <c r="Y32" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -3066,68 +3066,68 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EVEN3.SA</t>
+          <t>DIRR3.SA</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.46</v>
+        <v>15.7</v>
       </c>
       <c r="D33" t="n">
-        <v>735912000</v>
+        <v>1179820032</v>
       </c>
       <c r="E33" t="n">
-        <v>3.561</v>
+        <v>7.919</v>
       </c>
       <c r="F33" t="n">
-        <v>246871008</v>
+        <v>389020992</v>
       </c>
       <c r="G33" t="n">
-        <v>489868992</v>
+        <v>1518194944</v>
       </c>
       <c r="H33" t="n">
-        <v>0.906</v>
+        <v>2.272</v>
       </c>
       <c r="I33" t="n">
-        <v>2.574</v>
+        <v>3.919</v>
       </c>
       <c r="J33" t="n">
-        <v>2365573888</v>
+        <v>2115602048</v>
       </c>
       <c r="K33" t="n">
-        <v>17.77</v>
+        <v>99.526</v>
       </c>
       <c r="L33" t="n">
-        <v>11.54</v>
+        <v>14.279</v>
       </c>
       <c r="M33" t="n">
-        <v>0.02405</v>
+        <v>0.03715</v>
       </c>
       <c r="N33" t="n">
-        <v>0.09378</v>
+        <v>0.17004</v>
       </c>
       <c r="O33" t="n">
-        <v>632043000</v>
+        <v>647106000</v>
       </c>
       <c r="P33" t="n">
-        <v>-880140032</v>
+        <v>-237502368</v>
       </c>
       <c r="Q33" t="n">
-        <v>-451828000</v>
+        <v>230303008</v>
       </c>
       <c r="R33" t="n">
-        <v>0.31</v>
+        <v>0.267</v>
       </c>
       <c r="S33" t="n">
-        <v>0.24298</v>
+        <v>0.3538</v>
       </c>
       <c r="T33" t="n">
-        <v>0.10436</v>
+        <v>0.18388</v>
       </c>
       <c r="U33" t="n">
-        <v>0.10023</v>
+        <v>0.16479999</v>
       </c>
       <c r="V33" t="n">
-        <v>0.06172</v>
+        <v>0.08341999999999999</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>-0.419</v>
+        <v>0.312</v>
       </c>
       <c r="Y33" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -3147,68 +3147,68 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MOVI3.SA</t>
+          <t>EVEN3.SA</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.92</v>
+        <v>4.51</v>
       </c>
       <c r="D34" t="n">
-        <v>7795457024</v>
+        <v>735912000</v>
       </c>
       <c r="E34" t="n">
-        <v>21.552</v>
+        <v>3.561</v>
       </c>
       <c r="F34" t="n">
-        <v>3303735296</v>
+        <v>246871008</v>
       </c>
       <c r="G34" t="n">
-        <v>19640942592</v>
+        <v>489868992</v>
       </c>
       <c r="H34" t="n">
-        <v>2.354</v>
+        <v>0.906</v>
       </c>
       <c r="I34" t="n">
-        <v>2.623</v>
+        <v>2.574</v>
       </c>
       <c r="J34" t="n">
-        <v>8630148096</v>
+        <v>2365573888</v>
       </c>
       <c r="K34" t="n">
-        <v>707.252</v>
+        <v>17.77</v>
       </c>
       <c r="L34" t="n">
-        <v>25.092</v>
+        <v>11.54</v>
       </c>
       <c r="M34" t="n">
-        <v>0.068959996</v>
+        <v>0.02405</v>
       </c>
       <c r="N34" t="n">
-        <v>0.27379</v>
+        <v>0.09378</v>
       </c>
       <c r="O34" t="n">
-        <v>2386548000</v>
+        <v>632043000</v>
       </c>
       <c r="P34" t="n">
-        <v>1038948864</v>
+        <v>-880140032</v>
       </c>
       <c r="Q34" t="n">
-        <v>-8341357056</v>
+        <v>-451828000</v>
       </c>
       <c r="R34" t="n">
-        <v>0.661</v>
+        <v>0.31</v>
       </c>
       <c r="S34" t="n">
-        <v>0.41057</v>
+        <v>0.24298</v>
       </c>
       <c r="T34" t="n">
-        <v>0.38281</v>
+        <v>0.10436</v>
       </c>
       <c r="U34" t="n">
-        <v>0.29497</v>
+        <v>0.10023</v>
       </c>
       <c r="V34" t="n">
-        <v>0.09446</v>
+        <v>0.06172</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3216,10 +3216,10 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>-0.6820000000000001</v>
+        <v>-0.419</v>
       </c>
       <c r="Y34" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -3228,68 +3228,68 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RENT3.SA</t>
+          <t>MOVI3.SA</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>57.29</v>
+        <v>6.53</v>
       </c>
       <c r="D35" t="n">
-        <v>6103906816</v>
+        <v>7795457024</v>
       </c>
       <c r="E35" t="n">
-        <v>6.257</v>
+        <v>21.552</v>
       </c>
       <c r="F35" t="n">
-        <v>3896579072</v>
+        <v>3303735296</v>
       </c>
       <c r="G35" t="n">
-        <v>30207672320</v>
+        <v>19640942592</v>
       </c>
       <c r="H35" t="n">
-        <v>0.592</v>
+        <v>2.354</v>
       </c>
       <c r="I35" t="n">
-        <v>1.059</v>
+        <v>2.623</v>
       </c>
       <c r="J35" t="n">
-        <v>14534284288</v>
+        <v>8630148096</v>
       </c>
       <c r="K35" t="n">
-        <v>148.546</v>
+        <v>707.252</v>
       </c>
       <c r="L35" t="n">
-        <v>17.983</v>
+        <v>25.092</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05914</v>
+        <v>0.068959996</v>
       </c>
       <c r="N35" t="n">
-        <v>0.13236</v>
+        <v>0.27379</v>
       </c>
       <c r="O35" t="n">
-        <v>3846149000</v>
+        <v>2386548000</v>
       </c>
       <c r="P35" t="n">
-        <v>4638917120</v>
+        <v>1038948864</v>
       </c>
       <c r="Q35" t="n">
-        <v>-4211045888</v>
+        <v>-8341357056</v>
       </c>
       <c r="R35" t="n">
-        <v>1.214</v>
+        <v>0.661</v>
       </c>
       <c r="S35" t="n">
-        <v>0.3316</v>
+        <v>0.41057</v>
       </c>
       <c r="T35" t="n">
-        <v>0.26809</v>
+        <v>0.38281</v>
       </c>
       <c r="U35" t="n">
-        <v>0.28052</v>
+        <v>0.29497</v>
       </c>
       <c r="V35" t="n">
-        <v>0.12667</v>
+        <v>0.09446</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3297,10 +3297,10 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>-0.512</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="Y35" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
@@ -3309,68 +3309,68 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LREN3.SA</t>
+          <t>RENT3.SA</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19.77</v>
+        <v>54.82</v>
       </c>
       <c r="D36" t="n">
-        <v>4406316032</v>
+        <v>6103906816</v>
       </c>
       <c r="E36" t="n">
-        <v>4.546</v>
+        <v>6.257</v>
       </c>
       <c r="F36" t="n">
-        <v>1151725952</v>
+        <v>3896579072</v>
       </c>
       <c r="G36" t="n">
-        <v>6199977984</v>
+        <v>30207672320</v>
       </c>
       <c r="H36" t="n">
-        <v>1.492</v>
+        <v>0.592</v>
       </c>
       <c r="I36" t="n">
-        <v>1.805</v>
+        <v>1.059</v>
       </c>
       <c r="J36" t="n">
-        <v>13128572928</v>
+        <v>14534284288</v>
       </c>
       <c r="K36" t="n">
-        <v>63.325</v>
+        <v>148.546</v>
       </c>
       <c r="L36" t="n">
-        <v>13.422</v>
+        <v>17.983</v>
       </c>
       <c r="M36" t="n">
-        <v>0.03844</v>
+        <v>0.05914</v>
       </c>
       <c r="N36" t="n">
-        <v>0.12708999</v>
+        <v>0.13236</v>
       </c>
       <c r="O36" t="n">
-        <v>6172378000</v>
+        <v>3846149000</v>
       </c>
       <c r="P36" t="n">
-        <v>-699397504</v>
+        <v>4638917120</v>
       </c>
       <c r="Q36" t="n">
-        <v>1394081024</v>
+        <v>-4211045888</v>
       </c>
       <c r="R36" t="n">
-        <v>0.148</v>
+        <v>1.214</v>
       </c>
       <c r="S36" t="n">
-        <v>0.59695</v>
+        <v>0.3316</v>
       </c>
       <c r="T36" t="n">
-        <v>0.08773</v>
+        <v>0.26809</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09433999999999999</v>
+        <v>0.28052</v>
       </c>
       <c r="V36" t="n">
-        <v>0.09336000999999999</v>
+        <v>0.12667</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3378,10 +3378,10 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.526</v>
+        <v>-0.512</v>
       </c>
       <c r="Y36" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -3390,68 +3390,68 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CYRE3.SA</t>
+          <t>LREN3.SA</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>14.03</v>
+        <v>19.2</v>
       </c>
       <c r="D37" t="n">
-        <v>2629051904</v>
+        <v>3503482112</v>
       </c>
       <c r="E37" t="n">
-        <v>6.937</v>
+        <v>3.61</v>
       </c>
       <c r="F37" t="n">
-        <v>685854016</v>
+        <v>1788492032</v>
       </c>
       <c r="G37" t="n">
-        <v>4338000896</v>
+        <v>5315284992</v>
       </c>
       <c r="H37" t="n">
-        <v>1.498</v>
+        <v>1.575</v>
       </c>
       <c r="I37" t="n">
-        <v>2.585</v>
+        <v>1.863</v>
       </c>
       <c r="J37" t="n">
-        <v>5457061888</v>
+        <v>13271137280</v>
       </c>
       <c r="K37" t="n">
-        <v>58.889</v>
+        <v>52.692</v>
       </c>
       <c r="L37" t="n">
-        <v>14.347</v>
+        <v>13.624</v>
       </c>
       <c r="M37" t="n">
-        <v>0.02891</v>
+        <v>0.04244</v>
       </c>
       <c r="N37" t="n">
-        <v>0.12804</v>
+        <v>0.12986</v>
       </c>
       <c r="O37" t="n">
-        <v>1725506000</v>
+        <v>7984814000</v>
       </c>
       <c r="P37" t="n">
-        <v>76091128</v>
+        <v>-583995264</v>
       </c>
       <c r="Q37" t="n">
-        <v>-440540000</v>
+        <v>1536237056</v>
       </c>
       <c r="R37" t="n">
-        <v>0.211</v>
+        <v>0.037</v>
       </c>
       <c r="S37" t="n">
-        <v>0.33041</v>
+        <v>0.60167</v>
       </c>
       <c r="T37" t="n">
-        <v>0.12568</v>
+        <v>0.13475999</v>
       </c>
       <c r="U37" t="n">
-        <v>0.12229</v>
+        <v>0.10889</v>
       </c>
       <c r="V37" t="n">
-        <v>0.15003</v>
+        <v>0.09733</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3459,10 +3459,10 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.246</v>
+        <v>0.155</v>
       </c>
       <c r="Y37" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -3471,68 +3471,68 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SMTO3.SA</t>
+          <t>CYRE3.SA</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>26.31</v>
+        <v>15.15</v>
       </c>
       <c r="D38" t="n">
-        <v>1880321024</v>
+        <v>2629051904</v>
       </c>
       <c r="E38" t="n">
-        <v>5.429</v>
+        <v>6.937</v>
       </c>
       <c r="F38" t="n">
-        <v>3526594048</v>
+        <v>685854016</v>
       </c>
       <c r="G38" t="n">
-        <v>7138679808</v>
+        <v>4338000896</v>
       </c>
       <c r="H38" t="n">
-        <v>0.806</v>
+        <v>1.498</v>
       </c>
       <c r="I38" t="n">
-        <v>1.873</v>
+        <v>2.585</v>
       </c>
       <c r="J38" t="n">
-        <v>6293622784</v>
+        <v>5457061888</v>
       </c>
       <c r="K38" t="n">
-        <v>130.936</v>
+        <v>58.889</v>
       </c>
       <c r="L38" t="n">
-        <v>18.175</v>
+        <v>14.347</v>
       </c>
       <c r="M38" t="n">
-        <v>0.07738</v>
+        <v>0.02891</v>
       </c>
       <c r="N38" t="n">
-        <v>0.27301002</v>
+        <v>0.12804</v>
       </c>
       <c r="O38" t="n">
-        <v>2420264000</v>
+        <v>1725506000</v>
       </c>
       <c r="P38" t="n">
-        <v>-144442368</v>
+        <v>76091128</v>
       </c>
       <c r="Q38" t="n">
-        <v>2986292992</v>
+        <v>-440540000</v>
       </c>
       <c r="R38" t="n">
-        <v>0.116</v>
+        <v>0.211</v>
       </c>
       <c r="S38" t="n">
-        <v>0.38372</v>
+        <v>0.33041</v>
       </c>
       <c r="T38" t="n">
-        <v>0.5603399999999999</v>
+        <v>0.12568</v>
       </c>
       <c r="U38" t="n">
-        <v>0.31361</v>
+        <v>0.12229</v>
       </c>
       <c r="V38" t="n">
-        <v>0.21554</v>
+        <v>0.15003</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3540,10 +3540,10 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>-0.423</v>
+        <v>0.246</v>
       </c>
       <c r="Y38" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -3552,68 +3552,68 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MDIA3.SA</t>
+          <t>SMTO3.SA</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>33.61</v>
+        <v>27.29</v>
       </c>
       <c r="D39" t="n">
-        <v>439284992</v>
+        <v>2697863936</v>
       </c>
       <c r="E39" t="n">
-        <v>1.307</v>
+        <v>7.57</v>
       </c>
       <c r="F39" t="n">
-        <v>941536000</v>
+        <v>3437958912</v>
       </c>
       <c r="G39" t="n">
-        <v>2656525056</v>
+        <v>7613507072</v>
       </c>
       <c r="H39" t="n">
-        <v>1.006</v>
+        <v>1.106</v>
       </c>
       <c r="I39" t="n">
-        <v>2.06</v>
+        <v>2.111</v>
       </c>
       <c r="J39" t="n">
-        <v>9528730624</v>
+        <v>6295984128</v>
       </c>
       <c r="K39" t="n">
-        <v>40.299</v>
+        <v>131.523</v>
       </c>
       <c r="L39" t="n">
-        <v>28.108</v>
+        <v>18.177</v>
       </c>
       <c r="M39" t="n">
-        <v>0.041360002</v>
+        <v>0.06668</v>
       </c>
       <c r="N39" t="n">
-        <v>0.09155000000000001</v>
+        <v>0.20493001</v>
       </c>
       <c r="O39" t="n">
-        <v>1735132000</v>
+        <v>2420264000</v>
       </c>
       <c r="P39" t="n">
-        <v>-560145024</v>
+        <v>-86649752</v>
       </c>
       <c r="Q39" t="n">
-        <v>-16308000</v>
+        <v>2831944960</v>
       </c>
       <c r="R39" t="n">
-        <v>0.366</v>
+        <v>0.002</v>
       </c>
       <c r="S39" t="n">
-        <v>0.22879</v>
+        <v>0.34594002</v>
       </c>
       <c r="T39" t="n">
-        <v>0.098809995</v>
+        <v>0.54605</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07557</v>
+        <v>0.28177</v>
       </c>
       <c r="V39" t="n">
-        <v>0.06479</v>
+        <v>0.17301</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>-0.008</v>
+        <v>-0.383</v>
       </c>
       <c r="Y39" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -3633,68 +3633,68 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CAML3.SA</t>
+          <t>MDIA3.SA</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7.68</v>
+        <v>33.7</v>
       </c>
       <c r="D40" t="n">
-        <v>775051008</v>
+        <v>439284992</v>
       </c>
       <c r="E40" t="n">
-        <v>2.214</v>
+        <v>1.307</v>
       </c>
       <c r="F40" t="n">
-        <v>771347008</v>
+        <v>941536000</v>
       </c>
       <c r="G40" t="n">
-        <v>3859323904</v>
+        <v>2656525056</v>
       </c>
       <c r="H40" t="n">
-        <v>1.054</v>
+        <v>1.006</v>
       </c>
       <c r="I40" t="n">
-        <v>1.952</v>
+        <v>2.06</v>
       </c>
       <c r="J40" t="n">
-        <v>9960456192</v>
+        <v>9528730624</v>
       </c>
       <c r="K40" t="n">
-        <v>128.302</v>
+        <v>40.299</v>
       </c>
       <c r="L40" t="n">
-        <v>27.941</v>
+        <v>28.108</v>
       </c>
       <c r="M40" t="n">
-        <v>0.045560002</v>
+        <v>0.041360002</v>
       </c>
       <c r="N40" t="n">
-        <v>0.16371</v>
+        <v>0.09155000000000001</v>
       </c>
       <c r="O40" t="n">
-        <v>1778153000</v>
+        <v>1735132000</v>
       </c>
       <c r="P40" t="n">
-        <v>-23671624</v>
+        <v>-560145024</v>
       </c>
       <c r="Q40" t="n">
-        <v>-219378000</v>
+        <v>-16308000</v>
       </c>
       <c r="R40" t="n">
-        <v>0.144</v>
+        <v>0.366</v>
       </c>
       <c r="S40" t="n">
-        <v>0.20732</v>
+        <v>0.22879</v>
       </c>
       <c r="T40" t="n">
-        <v>0.07743999999999999</v>
+        <v>0.098809995</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06103</v>
+        <v>0.07557</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04822</v>
+        <v>0.06479</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.25</v>
+        <v>-0.008</v>
       </c>
       <c r="Y40" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -3714,68 +3714,68 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VIVA3.SA</t>
+          <t>CAML3.SA</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22.85</v>
+        <v>7.96</v>
       </c>
       <c r="D41" t="n">
-        <v>209291648</v>
+        <v>775051008</v>
       </c>
       <c r="E41" t="n">
-        <v>0.888</v>
+        <v>2.214</v>
       </c>
       <c r="F41" t="n">
-        <v>336014944</v>
+        <v>771347008</v>
       </c>
       <c r="G41" t="n">
-        <v>697695488</v>
+        <v>3859323904</v>
       </c>
       <c r="H41" t="n">
-        <v>1.342</v>
+        <v>1.054</v>
       </c>
       <c r="I41" t="n">
-        <v>2.832</v>
+        <v>1.952</v>
       </c>
       <c r="J41" t="n">
-        <v>1749136640</v>
+        <v>9960456192</v>
       </c>
       <c r="K41" t="n">
-        <v>44.036</v>
+        <v>128.302</v>
       </c>
       <c r="L41" t="n">
-        <v>7.411</v>
+        <v>27.941</v>
       </c>
       <c r="M41" t="n">
-        <v>0.084709994</v>
+        <v>0.045560002</v>
       </c>
       <c r="N41" t="n">
-        <v>0.22563</v>
+        <v>0.16371</v>
       </c>
       <c r="O41" t="n">
-        <v>991477802</v>
+        <v>1778153000</v>
       </c>
       <c r="P41" t="n">
-        <v>-199724528</v>
+        <v>-23671624</v>
       </c>
       <c r="Q41" t="n">
-        <v>-20464054</v>
+        <v>-219378000</v>
       </c>
       <c r="R41" t="n">
-        <v>0.165</v>
+        <v>0.144</v>
       </c>
       <c r="S41" t="n">
-        <v>0.67932</v>
+        <v>0.20732</v>
       </c>
       <c r="T41" t="n">
-        <v>0.19209999</v>
+        <v>0.07743999999999999</v>
       </c>
       <c r="U41" t="n">
-        <v>0.19559</v>
+        <v>0.06103</v>
       </c>
       <c r="V41" t="n">
-        <v>0.18879999</v>
+        <v>0.04822</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>-0.21</v>
+        <v>0.25</v>
       </c>
       <c r="Y41" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -3795,77 +3795,79 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PCAR3.SA</t>
+          <t>VIVA3.SA</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>18.38</v>
+        <v>21.89</v>
       </c>
       <c r="D42" t="n">
-        <v>3860000000</v>
+        <v>209291648</v>
       </c>
       <c r="E42" t="n">
-        <v>14.324</v>
+        <v>0.888</v>
       </c>
       <c r="F42" t="n">
-        <v>2796000000</v>
+        <v>336014944</v>
       </c>
       <c r="G42" t="n">
-        <v>13987999744</v>
+        <v>697695488</v>
       </c>
       <c r="H42" t="n">
-        <v>0.614</v>
+        <v>1.342</v>
       </c>
       <c r="I42" t="n">
-        <v>1.068</v>
+        <v>2.832</v>
       </c>
       <c r="J42" t="n">
-        <v>53238001664</v>
+        <v>1749136640</v>
       </c>
       <c r="K42" t="n">
-        <v>87.919</v>
+        <v>44.036</v>
       </c>
       <c r="L42" t="n">
-        <v>197.911</v>
+        <v>7.411</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02629</v>
+        <v>0.084709994</v>
       </c>
       <c r="N42" t="n">
-        <v>0.027880002</v>
+        <v>0.22563</v>
       </c>
       <c r="O42" t="n">
-        <v>12950000000</v>
+        <v>991477802</v>
       </c>
       <c r="P42" t="n">
-        <v>-743625024</v>
+        <v>-199724528</v>
       </c>
       <c r="Q42" t="n">
-        <v>1296000000</v>
+        <v>-20464054</v>
       </c>
       <c r="R42" t="n">
-        <v>0.089</v>
+        <v>0.165</v>
       </c>
       <c r="S42" t="n">
-        <v>0.25014</v>
+        <v>0.67932</v>
       </c>
       <c r="T42" t="n">
-        <v>0.05252</v>
+        <v>0.19209999</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03638</v>
+        <v>0.19559</v>
       </c>
       <c r="V42" t="n">
-        <v>0.03204</v>
+        <v>0.18879999</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr"/>
+      <c r="X42" t="n">
+        <v>-0.21</v>
+      </c>
       <c r="Y42" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
@@ -3874,79 +3876,77 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JBSS3.SA</t>
+          <t>PCAR3.SA</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18.79</v>
+        <v>16.74</v>
       </c>
       <c r="D43" t="n">
-        <v>16665127936</v>
+        <v>3860000000</v>
       </c>
       <c r="E43" t="n">
-        <v>7.513</v>
+        <v>14.324</v>
       </c>
       <c r="F43" t="n">
-        <v>39666401280</v>
+        <v>2796000000</v>
       </c>
       <c r="G43" t="n">
-        <v>105725919232</v>
+        <v>13987999744</v>
       </c>
       <c r="H43" t="n">
-        <v>0.732</v>
+        <v>0.614</v>
       </c>
       <c r="I43" t="n">
-        <v>1.462</v>
+        <v>1.068</v>
       </c>
       <c r="J43" t="n">
-        <v>379178221568</v>
+        <v>53238001664</v>
       </c>
       <c r="K43" t="n">
-        <v>221.502</v>
+        <v>87.919</v>
       </c>
       <c r="L43" t="n">
-        <v>164.57</v>
+        <v>197.911</v>
       </c>
       <c r="M43" t="n">
-        <v>0.10226</v>
+        <v>0.02629</v>
       </c>
       <c r="N43" t="n">
-        <v>0.41882</v>
+        <v>0.027880002</v>
       </c>
       <c r="O43" t="n">
-        <v>66184985000</v>
+        <v>12950000000</v>
       </c>
       <c r="P43" t="n">
-        <v>9472960512</v>
+        <v>-743625024</v>
       </c>
       <c r="Q43" t="n">
-        <v>17800712192</v>
+        <v>1296000000</v>
       </c>
       <c r="R43" t="n">
-        <v>0.068</v>
+        <v>0.089</v>
       </c>
       <c r="S43" t="n">
-        <v>0.17963</v>
+        <v>0.25014</v>
       </c>
       <c r="T43" t="n">
-        <v>0.10461</v>
+        <v>0.05252</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0868</v>
+        <v>0.03638</v>
       </c>
       <c r="V43" t="n">
-        <v>0.05164</v>
+        <v>0.03204</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="X43" t="n">
-        <v>-0.399</v>
-      </c>
+      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -3955,68 +3955,68 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CSUD3.SA</t>
+          <t>JBSS3.SA</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>11.28</v>
+        <v>18.75</v>
       </c>
       <c r="D44" t="n">
-        <v>86589000</v>
+        <v>16665127936</v>
       </c>
       <c r="E44" t="n">
-        <v>2.1</v>
+        <v>7.513</v>
       </c>
       <c r="F44" t="n">
-        <v>87310000</v>
+        <v>39666401280</v>
       </c>
       <c r="G44" t="n">
-        <v>87677000</v>
+        <v>105725919232</v>
       </c>
       <c r="H44" t="n">
-        <v>1.046</v>
+        <v>0.732</v>
       </c>
       <c r="I44" t="n">
-        <v>1.138</v>
+        <v>1.462</v>
       </c>
       <c r="J44" t="n">
-        <v>527200000</v>
+        <v>379178221568</v>
       </c>
       <c r="K44" t="n">
-        <v>24.165</v>
+        <v>221.502</v>
       </c>
       <c r="L44" t="n">
-        <v>12.88</v>
+        <v>164.57</v>
       </c>
       <c r="M44" t="n">
-        <v>0.10903</v>
+        <v>0.10226</v>
       </c>
       <c r="N44" t="n">
-        <v>0.20006001</v>
+        <v>0.41882</v>
       </c>
       <c r="O44" t="n">
-        <v>156243000</v>
+        <v>66184985000</v>
       </c>
       <c r="P44" t="n">
-        <v>53853376</v>
+        <v>9472960512</v>
       </c>
       <c r="Q44" t="n">
-        <v>118252000</v>
+        <v>17800712192</v>
       </c>
       <c r="R44" t="n">
-        <v>0.038</v>
+        <v>0.068</v>
       </c>
       <c r="S44" t="n">
-        <v>0.34928</v>
+        <v>0.17963</v>
       </c>
       <c r="T44" t="n">
-        <v>0.16561002</v>
+        <v>0.10461</v>
       </c>
       <c r="U44" t="n">
-        <v>0.18995</v>
+        <v>0.0868</v>
       </c>
       <c r="V44" t="n">
-        <v>0.12956999</v>
+        <v>0.05164</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4024,10 +4024,10 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.155</v>
+        <v>-0.399</v>
       </c>
       <c r="Y44" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -4036,68 +4036,68 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PSSA3.SA</t>
+          <t>CSUD3.SA</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25.5</v>
+        <v>10.82</v>
       </c>
       <c r="D45" t="n">
-        <v>9927949312</v>
+        <v>86589000</v>
       </c>
       <c r="E45" t="n">
-        <v>15.56</v>
+        <v>2.1</v>
       </c>
       <c r="F45" t="n">
-        <v>1986578048</v>
+        <v>87310000</v>
       </c>
       <c r="G45" t="n">
-        <v>2238281984</v>
+        <v>87677000</v>
       </c>
       <c r="H45" t="n">
-        <v>0.607</v>
+        <v>1.046</v>
       </c>
       <c r="I45" t="n">
-        <v>0.999</v>
+        <v>1.138</v>
       </c>
       <c r="J45" t="n">
-        <v>27830099968</v>
+        <v>527200000</v>
       </c>
       <c r="K45" t="n">
-        <v>22.373</v>
+        <v>24.165</v>
       </c>
       <c r="L45" t="n">
-        <v>43.222</v>
+        <v>12.88</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02841</v>
+        <v>0.10903</v>
       </c>
       <c r="N45" t="n">
-        <v>0.117010005</v>
+        <v>0.20006001</v>
       </c>
       <c r="O45" t="n">
-        <v>8874392000</v>
+        <v>156243000</v>
       </c>
       <c r="P45" t="n">
-        <v>-2011244416</v>
+        <v>53853376</v>
       </c>
       <c r="Q45" t="n">
-        <v>2392581888</v>
+        <v>118252000</v>
       </c>
       <c r="R45" t="n">
-        <v>0.355</v>
+        <v>0.038</v>
       </c>
       <c r="S45" t="n">
-        <v>0.33449</v>
+        <v>0.34928</v>
       </c>
       <c r="T45" t="n">
-        <v>0.07138</v>
+        <v>0.16561002</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07210999999999999</v>
+        <v>0.18995</v>
       </c>
       <c r="V45" t="n">
-        <v>0.03996</v>
+        <v>0.12956999</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>3.539</v>
+        <v>0.155</v>
       </c>
       <c r="Y45" t="n">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -4117,68 +4117,68 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MULT3.SA</t>
+          <t>PSSA3.SA</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>22.9</v>
+        <v>26.85</v>
       </c>
       <c r="D46" t="n">
-        <v>53462000</v>
+        <v>10208849920</v>
       </c>
       <c r="E46" t="n">
-        <v>0.091</v>
+        <v>16.001</v>
       </c>
       <c r="F46" t="n">
-        <v>1194951936</v>
+        <v>2612527104</v>
       </c>
       <c r="G46" t="n">
-        <v>3078546944</v>
+        <v>2107474048</v>
       </c>
       <c r="H46" t="n">
-        <v>0.323</v>
+        <v>0.614</v>
       </c>
       <c r="I46" t="n">
-        <v>1.082</v>
+        <v>1.011</v>
       </c>
       <c r="J46" t="n">
-        <v>1725138944</v>
+        <v>29701074944</v>
       </c>
       <c r="K46" t="n">
-        <v>47.045</v>
+        <v>19.805</v>
       </c>
       <c r="L46" t="n">
-        <v>2.932</v>
+        <v>46.108</v>
       </c>
       <c r="M46" t="n">
-        <v>0.05659</v>
+        <v>0.03273</v>
       </c>
       <c r="N46" t="n">
-        <v>0.114379995</v>
+        <v>0.115200005</v>
       </c>
       <c r="O46" t="n">
-        <v>963054000</v>
+        <v>10048021000</v>
       </c>
       <c r="P46" t="n">
-        <v>-138611248</v>
+        <v>-1435353088</v>
       </c>
       <c r="Q46" t="n">
-        <v>1179636992</v>
+        <v>2850592000</v>
       </c>
       <c r="R46" t="n">
-        <v>0.461</v>
+        <v>0.287</v>
       </c>
       <c r="S46" t="n">
-        <v>0.78372</v>
+        <v>0.33830002</v>
       </c>
       <c r="T46" t="n">
-        <v>0.69267</v>
+        <v>0.08796</v>
       </c>
       <c r="U46" t="n">
-        <v>0.5747100000000001</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="V46" t="n">
-        <v>0.43117002</v>
+        <v>0.03821</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4186,10 +4186,10 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.886</v>
+        <v>0.043</v>
       </c>
       <c r="Y46" t="n">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47">
@@ -4198,68 +4198,68 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ALSO3.SA</t>
+          <t>MULT3.SA</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17.62</v>
+        <v>25.1</v>
       </c>
       <c r="D47" t="n">
-        <v>18952000</v>
+        <v>23589000</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="F47" t="n">
-        <v>958652992</v>
+        <v>1269318016</v>
       </c>
       <c r="G47" t="n">
-        <v>3197178880</v>
+        <v>3006187008</v>
       </c>
       <c r="H47" t="n">
-        <v>0.463</v>
+        <v>0.414</v>
       </c>
       <c r="I47" t="n">
-        <v>0.714</v>
+        <v>1.374</v>
       </c>
       <c r="J47" t="n">
-        <v>1149428992</v>
+        <v>1814157952</v>
       </c>
       <c r="K47" t="n">
-        <v>39.985</v>
+        <v>45.669</v>
       </c>
       <c r="L47" t="n">
-        <v>4.339</v>
+        <v>3.091</v>
       </c>
       <c r="M47" t="n">
-        <v>0.040409997</v>
+        <v>0.06201</v>
       </c>
       <c r="N47" t="n">
-        <v>0.04415</v>
+        <v>0.11886</v>
       </c>
       <c r="O47" t="n">
-        <v>693183000</v>
+        <v>1448072000</v>
       </c>
       <c r="P47" t="n">
-        <v>1349956736</v>
+        <v>83973504</v>
       </c>
       <c r="Q47" t="n">
-        <v>808147008</v>
+        <v>1203853056</v>
       </c>
       <c r="R47" t="n">
-        <v>0.276</v>
+        <v>0.211</v>
       </c>
       <c r="S47" t="n">
-        <v>0.7349700300000001</v>
+        <v>0.79820997</v>
       </c>
       <c r="T47" t="n">
-        <v>0.83403</v>
+        <v>0.69967</v>
       </c>
       <c r="U47" t="n">
-        <v>0.65998</v>
+        <v>0.58897996</v>
       </c>
       <c r="V47" t="n">
-        <v>0.25106</v>
+        <v>0.42403</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.148</v>
       </c>
       <c r="Y47" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48">
@@ -4279,68 +4279,68 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LOGG3.SA</t>
+          <t>ALSO3.SA</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>16.77</v>
+        <v>17.56</v>
       </c>
       <c r="D48" t="n">
-        <v>272199008</v>
+        <v>18952000</v>
       </c>
       <c r="E48" t="n">
-        <v>2.715</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>150274000</v>
+        <v>958652992</v>
       </c>
       <c r="G48" t="n">
-        <v>1909611008</v>
+        <v>3197178880</v>
       </c>
       <c r="H48" t="n">
-        <v>0.771</v>
+        <v>0.463</v>
       </c>
       <c r="I48" t="n">
-        <v>0.783</v>
+        <v>0.714</v>
       </c>
       <c r="J48" t="n">
-        <v>203360000</v>
+        <v>1149428992</v>
       </c>
       <c r="K48" t="n">
-        <v>51.335</v>
+        <v>39.985</v>
       </c>
       <c r="L48" t="n">
-        <v>2.014</v>
+        <v>4.339</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01656</v>
+        <v>0.040409997</v>
       </c>
       <c r="N48" t="n">
-        <v>0.12571</v>
+        <v>0.04415</v>
       </c>
       <c r="O48" t="n">
-        <v>150036000</v>
+        <v>693183000</v>
       </c>
       <c r="P48" t="n">
-        <v>88137872</v>
+        <v>1349956736</v>
       </c>
       <c r="Q48" t="n">
-        <v>122838000</v>
+        <v>808147008</v>
       </c>
       <c r="R48" t="n">
-        <v>0.706</v>
+        <v>0.276</v>
       </c>
       <c r="S48" t="n">
-        <v>0.986</v>
+        <v>0.7349700300000001</v>
       </c>
       <c r="T48" t="n">
-        <v>0.73894995</v>
+        <v>0.83403</v>
       </c>
       <c r="U48" t="n">
-        <v>0.73538</v>
+        <v>0.65998</v>
       </c>
       <c r="V48" t="n">
-        <v>2.11157</v>
+        <v>0.25106</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4348,10 +4348,10 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.183</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="Y48" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
@@ -4360,68 +4360,68 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PDTC3.SA</t>
+          <t>LOGG3.SA</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.88</v>
+        <v>14.6</v>
       </c>
       <c r="D49" t="n">
-        <v>47222000</v>
+        <v>297732992</v>
       </c>
       <c r="E49" t="n">
-        <v>0.602</v>
+        <v>2.98</v>
       </c>
       <c r="F49" t="n">
-        <v>14285000</v>
+        <v>160135008</v>
       </c>
       <c r="G49" t="n">
-        <v>118078000</v>
+        <v>1875799040</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="I49" t="n">
-        <v>1.898</v>
+        <v>0.921</v>
       </c>
       <c r="J49" t="n">
-        <v>358366016</v>
+        <v>230124000</v>
       </c>
       <c r="K49" t="n">
-        <v>90.41500000000001</v>
+        <v>51.198</v>
       </c>
       <c r="L49" t="n">
-        <v>4.568</v>
+        <v>2.287</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0128</v>
+        <v>0.01758</v>
       </c>
       <c r="N49" t="n">
-        <v>0.017029999</v>
+        <v>0.11441</v>
       </c>
       <c r="O49" t="n">
-        <v>122609000</v>
+        <v>227083000</v>
       </c>
       <c r="P49" t="n">
-        <v>-35210248</v>
+        <v>-45589376</v>
       </c>
       <c r="Q49" t="n">
-        <v>-50991000</v>
+        <v>128772000</v>
       </c>
       <c r="R49" t="n">
-        <v>0.14</v>
+        <v>0.731</v>
       </c>
       <c r="S49" t="n">
-        <v>0.32536</v>
+        <v>0.98678</v>
       </c>
       <c r="T49" t="n">
-        <v>0.03986</v>
+        <v>0.69585997</v>
       </c>
       <c r="U49" t="n">
-        <v>0.02607</v>
+        <v>0.69128996</v>
       </c>
       <c r="V49" t="n">
-        <v>0.00619</v>
+        <v>1.67767</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>1.622</v>
+        <v>-0.486</v>
       </c>
       <c r="Y49" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
@@ -4441,68 +4441,68 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BRML3.SA</t>
+          <t>PDTC3.SA</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="D50" t="n">
-        <v>16658000</v>
+        <v>47222000</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02</v>
+        <v>0.602</v>
       </c>
       <c r="F50" t="n">
-        <v>897995008</v>
+        <v>14285000</v>
       </c>
       <c r="G50" t="n">
-        <v>3381587968</v>
+        <v>118078000</v>
       </c>
       <c r="H50" t="n">
-        <v>0.486</v>
+        <v>1.04</v>
       </c>
       <c r="I50" t="n">
-        <v>2.1</v>
+        <v>1.898</v>
       </c>
       <c r="J50" t="n">
-        <v>1368270976</v>
+        <v>358366016</v>
       </c>
       <c r="K50" t="n">
-        <v>30.182</v>
+        <v>90.41500000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>1.648</v>
+        <v>4.568</v>
       </c>
       <c r="M50" t="n">
-        <v>0.02777</v>
+        <v>0.0128</v>
       </c>
       <c r="N50" t="n">
-        <v>0.05415</v>
+        <v>0.017029999</v>
       </c>
       <c r="O50" t="n">
-        <v>973762000</v>
+        <v>122609000</v>
       </c>
       <c r="P50" t="n">
-        <v>711260032</v>
+        <v>-35210248</v>
       </c>
       <c r="Q50" t="n">
-        <v>892604992</v>
+        <v>-50991000</v>
       </c>
       <c r="R50" t="n">
-        <v>0.252</v>
+        <v>0.14</v>
       </c>
       <c r="S50" t="n">
-        <v>0.88261</v>
+        <v>0.32536</v>
       </c>
       <c r="T50" t="n">
-        <v>0.65629995</v>
+        <v>0.03986</v>
       </c>
       <c r="U50" t="n">
-        <v>0.61305</v>
+        <v>0.02607</v>
       </c>
       <c r="V50" t="n">
-        <v>0.39625</v>
+        <v>0.00619</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>1.273</v>
+        <v>1.622</v>
       </c>
       <c r="Y50" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51">
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>26</v>
+        <v>27.45</v>
       </c>
       <c r="D51" t="n">
         <v>131955000</v>
@@ -4607,62 +4607,62 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>36.82</v>
+        <v>34.29</v>
       </c>
       <c r="D52" t="n">
-        <v>4664849920</v>
+        <v>6076618240</v>
       </c>
       <c r="E52" t="n">
-        <v>2.336</v>
+        <v>3.043</v>
       </c>
       <c r="F52" t="n">
-        <v>6435871744</v>
+        <v>7069720064</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1.993</v>
+        <v>1.109</v>
       </c>
       <c r="I52" t="n">
-        <v>1.993</v>
+        <v>1.11</v>
       </c>
       <c r="J52" t="n">
-        <v>6870228992</v>
+        <v>7505759232</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>3.441</v>
+        <v>3.759</v>
       </c>
       <c r="M52" t="n">
-        <v>0.31534</v>
+        <v>0.30012</v>
       </c>
       <c r="N52" t="n">
-        <v>0.63383996</v>
+        <v>0.81258005</v>
       </c>
       <c r="O52" t="n">
-        <v>5132111000</v>
+        <v>7299889000</v>
       </c>
       <c r="P52" t="n">
-        <v>5143205888</v>
+        <v>6819003392</v>
       </c>
       <c r="Q52" t="n">
-        <v>3110114048</v>
+        <v>3275011072</v>
       </c>
       <c r="R52" t="n">
-        <v>0.524</v>
+        <v>0.386</v>
       </c>
       <c r="S52" t="n">
-        <v>0.97040004</v>
+        <v>0.97257006</v>
       </c>
       <c r="T52" t="n">
-        <v>0.93678004</v>
+        <v>0.94191</v>
       </c>
       <c r="U52" t="n">
-        <v>0.93681</v>
+        <v>0.94184995</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7954</v>
+        <v>0.8053199599999999</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.473</v>
       </c>
       <c r="Y52" t="n">
         <v>180</v>
@@ -4686,7 +4686,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>10.24</v>
       </c>
       <c r="D53" t="n">
         <v>129405000</v>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10.68</v>
+        <v>10.31</v>
       </c>
       <c r="D54" t="n">
         <v>129405000</v>
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>46.06</v>
+        <v>46.34</v>
       </c>
       <c r="D55" t="n">
         <v>17866067968</v>
@@ -4927,64 +4927,64 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.87</v>
+        <v>3.83</v>
       </c>
       <c r="D56" t="n">
-        <v>6252588032</v>
+        <v>6502312960</v>
       </c>
       <c r="E56" t="n">
-        <v>1.136</v>
+        <v>1.182</v>
       </c>
       <c r="F56" t="n">
-        <v>7604770816</v>
+        <v>7706012160</v>
       </c>
       <c r="G56" t="n">
-        <v>29246484480</v>
+        <v>29185499136</v>
       </c>
       <c r="H56" t="n">
-        <v>1.854</v>
+        <v>1.498</v>
       </c>
       <c r="I56" t="n">
-        <v>2.349</v>
+        <v>1.935</v>
       </c>
       <c r="J56" t="n">
-        <v>19530369024</v>
+        <v>20032698368</v>
       </c>
       <c r="K56" t="n">
-        <v>266.291</v>
+        <v>252.289</v>
       </c>
       <c r="L56" t="n">
-        <v>3.55</v>
+        <v>5.819</v>
       </c>
       <c r="M56" t="n">
-        <v>0.06861</v>
+        <v>0.06625</v>
       </c>
       <c r="N56" t="n">
-        <v>0.56759</v>
+        <v>0.50271</v>
       </c>
       <c r="O56" t="n">
-        <v>6212957000</v>
+        <v>7606178000</v>
       </c>
       <c r="P56" t="n">
-        <v>-2613447680</v>
+        <v>-2380762112</v>
       </c>
       <c r="Q56" t="n">
-        <v>6451429888</v>
+        <v>8420813824</v>
       </c>
       <c r="R56" t="n">
-        <v>0.259</v>
+        <v>0.11</v>
       </c>
       <c r="S56" t="n">
-        <v>0.3832</v>
+        <v>0.37969002</v>
       </c>
       <c r="T56" t="n">
-        <v>0.38938</v>
+        <v>0.38467</v>
       </c>
       <c r="U56" t="n">
-        <v>0.24439</v>
+        <v>0.23718001</v>
       </c>
       <c r="V56" t="n">
-        <v>0.23302001</v>
+        <v>0.2227</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.75</v>
+        <v>-0.102</v>
       </c>
       <c r="Y56" t="n">
         <v>192</v>
@@ -5008,64 +5008,64 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3.87</v>
+        <v>3.84</v>
       </c>
       <c r="D57" t="n">
-        <v>6252588032</v>
+        <v>6502312960</v>
       </c>
       <c r="E57" t="n">
-        <v>1.136</v>
+        <v>1.182</v>
       </c>
       <c r="F57" t="n">
-        <v>7604770816</v>
+        <v>7706012160</v>
       </c>
       <c r="G57" t="n">
-        <v>29246484480</v>
+        <v>29185499136</v>
       </c>
       <c r="H57" t="n">
-        <v>1.854</v>
+        <v>1.498</v>
       </c>
       <c r="I57" t="n">
-        <v>2.349</v>
+        <v>1.935</v>
       </c>
       <c r="J57" t="n">
-        <v>19530369024</v>
+        <v>20032698368</v>
       </c>
       <c r="K57" t="n">
-        <v>266.291</v>
+        <v>252.289</v>
       </c>
       <c r="L57" t="n">
-        <v>3.55</v>
+        <v>5.819</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06861</v>
+        <v>0.06625</v>
       </c>
       <c r="N57" t="n">
-        <v>0.56759</v>
+        <v>0.50271</v>
       </c>
       <c r="O57" t="n">
-        <v>6212957000</v>
+        <v>7606178000</v>
       </c>
       <c r="P57" t="n">
-        <v>-2613447680</v>
+        <v>-2380762112</v>
       </c>
       <c r="Q57" t="n">
-        <v>6451429888</v>
+        <v>8420813824</v>
       </c>
       <c r="R57" t="n">
-        <v>0.259</v>
+        <v>0.11</v>
       </c>
       <c r="S57" t="n">
-        <v>0.3832</v>
+        <v>0.37969002</v>
       </c>
       <c r="T57" t="n">
-        <v>0.38938</v>
+        <v>0.38467</v>
       </c>
       <c r="U57" t="n">
-        <v>0.24439</v>
+        <v>0.23718001</v>
       </c>
       <c r="V57" t="n">
-        <v>0.23302001</v>
+        <v>0.2227</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.75</v>
+        <v>-0.102</v>
       </c>
       <c r="Y57" t="n">
         <v>193</v>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>82.26000000000001</v>
+        <v>79.03</v>
       </c>
       <c r="D58" t="n">
         <v>1622979968</v>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>87.93000000000001</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="D59" t="n">
         <v>1622979968</v>
@@ -5251,7 +5251,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>77</v>
+        <v>74.87</v>
       </c>
       <c r="D60" t="n">
         <v>1622979968</v>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17.29</v>
+        <v>16.73</v>
       </c>
       <c r="D61" t="n">
         <v>15620319232</v>
@@ -5413,7 +5413,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>9.9</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="D62" t="n">
         <v>339924000</v>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11.64</v>
+        <v>11.9</v>
       </c>
       <c r="D65" t="n">
         <v>396534016</v>
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>15.92</v>
+        <v>14.66</v>
       </c>
       <c r="D66" t="n">
         <v>3112999936</v>
@@ -5816,71 +5816,73 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3.13</v>
+        <v>3.04</v>
       </c>
       <c r="D67" t="n">
-        <v>6656487936</v>
+        <v>4912387072</v>
       </c>
       <c r="E67" t="n">
-        <v>0.643</v>
+        <v>0.475</v>
       </c>
       <c r="F67" t="n">
-        <v>10508506112</v>
+        <v>10362582016</v>
       </c>
       <c r="G67" t="n">
-        <v>46232674304</v>
+        <v>45399511040</v>
       </c>
       <c r="H67" t="n">
-        <v>0.593</v>
+        <v>0.572</v>
       </c>
       <c r="I67" t="n">
-        <v>1.276</v>
+        <v>1.189</v>
       </c>
       <c r="J67" t="n">
-        <v>239379120128</v>
+        <v>244358184960</v>
       </c>
       <c r="K67" t="n">
-        <v>206.184</v>
+        <v>208.204</v>
       </c>
       <c r="L67" t="n">
-        <v>23.123</v>
+        <v>23.604</v>
       </c>
       <c r="M67" t="n">
-        <v>0.02612</v>
+        <v>0.023340002</v>
       </c>
       <c r="N67" t="n">
-        <v>0.06816</v>
+        <v>0.0073</v>
       </c>
       <c r="O67" t="n">
         <v>11699012000</v>
       </c>
       <c r="P67" t="n">
-        <v>-7399000576</v>
+        <v>-4613773824</v>
       </c>
       <c r="Q67" t="n">
-        <v>8746382336</v>
+        <v>9633727488</v>
       </c>
       <c r="R67" t="n">
-        <v>0.329</v>
+        <v>0.09</v>
       </c>
       <c r="S67" t="n">
-        <v>0.04815</v>
+        <v>0.044439998</v>
       </c>
       <c r="T67" t="n">
-        <v>0.043899998</v>
+        <v>0.04241</v>
       </c>
       <c r="U67" t="n">
-        <v>0.01843</v>
+        <v>0.01606</v>
       </c>
       <c r="V67" t="n">
-        <v>0.00546</v>
+        <v>0.00039</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr"/>
+      <c r="X67" t="n">
+        <v>-0.87</v>
+      </c>
       <c r="Y67" t="n">
         <v>273</v>
       </c>
@@ -5895,7 +5897,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>29.55</v>
+        <v>30.11</v>
       </c>
       <c r="D68" t="n">
         <v>1893255936</v>
@@ -5976,7 +5978,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>41.63</v>
+        <v>37.05</v>
       </c>
       <c r="D69" t="n">
         <v>9291584512</v>
@@ -6057,64 +6059,64 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>12.64</v>
+        <v>13.41</v>
       </c>
       <c r="D70" t="n">
-        <v>5890695168</v>
+        <v>6142120960</v>
       </c>
       <c r="E70" t="n">
-        <v>5.409</v>
+        <v>5.64</v>
       </c>
       <c r="F70" t="n">
-        <v>3032694016</v>
+        <v>3245242112</v>
       </c>
       <c r="G70" t="n">
-        <v>13768232960</v>
+        <v>13277622272</v>
       </c>
       <c r="H70" t="n">
-        <v>1.079</v>
+        <v>1.012</v>
       </c>
       <c r="I70" t="n">
-        <v>1.531</v>
+        <v>1.454</v>
       </c>
       <c r="J70" t="n">
-        <v>139581734912</v>
+        <v>143634710528</v>
       </c>
       <c r="K70" t="n">
-        <v>121.078</v>
+        <v>109.057</v>
       </c>
       <c r="L70" t="n">
-        <v>127.918</v>
+        <v>131.535</v>
       </c>
       <c r="M70" t="n">
-        <v>0.03887</v>
+        <v>0.03582</v>
       </c>
       <c r="N70" t="n">
-        <v>0.09611</v>
+        <v>0.13586001</v>
       </c>
       <c r="O70" t="n">
-        <v>4904876000</v>
+        <v>6387451000</v>
       </c>
       <c r="P70" t="n">
-        <v>1852265088</v>
+        <v>8826393600</v>
       </c>
       <c r="Q70" t="n">
-        <v>1189661952</v>
+        <v>2004694016</v>
       </c>
       <c r="R70" t="n">
-        <v>0.334</v>
+        <v>0.127</v>
       </c>
       <c r="S70" t="n">
-        <v>0.04612</v>
+        <v>0.04447</v>
       </c>
       <c r="T70" t="n">
-        <v>0.02173</v>
+        <v>0.02259</v>
       </c>
       <c r="U70" t="n">
-        <v>0.01591</v>
+        <v>0.01505</v>
       </c>
       <c r="V70" t="n">
-        <v>0.009730000000000001</v>
+        <v>0.01254</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6122,7 +6124,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>-0.802</v>
+        <v>1.084</v>
       </c>
       <c r="Y70" t="n">
         <v>283</v>
@@ -6138,7 +6140,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25.62</v>
+        <v>26.15</v>
       </c>
       <c r="D71" t="n">
         <v>36687998976</v>
@@ -6219,7 +6221,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>28.7</v>
+        <v>30.07</v>
       </c>
       <c r="D72" t="n">
         <v>36687998976</v>
@@ -6300,7 +6302,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>18.05</v>
+        <v>17.34</v>
       </c>
       <c r="D73" t="n">
         <v>1453543936</v>
@@ -6381,7 +6383,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>20</v>
+        <v>19.64</v>
       </c>
       <c r="D74" t="n">
         <v>148496000</v>
@@ -6462,7 +6464,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9.449999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D75" t="n">
         <v>38641000</v>
@@ -6624,7 +6626,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9.94</v>
+        <v>10.57</v>
       </c>
       <c r="D77" t="n">
         <v>164250000</v>
@@ -6705,7 +6707,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>11.7</v>
+        <v>10.95</v>
       </c>
       <c r="D78" t="n">
         <v>352105984</v>
@@ -6786,7 +6788,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>23.71</v>
+        <v>22.8</v>
       </c>
       <c r="D79" t="n">
         <v>371172000</v>
@@ -6867,64 +6869,64 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>44.51</v>
+        <v>42.6</v>
       </c>
       <c r="D80" t="n">
-        <v>2218905088</v>
+        <v>2862472960</v>
       </c>
       <c r="E80" t="n">
-        <v>3.505</v>
+        <v>4.53</v>
       </c>
       <c r="F80" t="n">
-        <v>2411075072</v>
+        <v>2549539072</v>
       </c>
       <c r="G80" t="n">
-        <v>8998021120</v>
+        <v>9801874432</v>
       </c>
       <c r="H80" t="n">
-        <v>1.209</v>
+        <v>1.135</v>
       </c>
       <c r="I80" t="n">
-        <v>1.8</v>
+        <v>1.632</v>
       </c>
       <c r="J80" t="n">
-        <v>7051450880</v>
+        <v>7546355200</v>
       </c>
       <c r="K80" t="n">
-        <v>85.693</v>
+        <v>91.989</v>
       </c>
       <c r="L80" t="n">
-        <v>11.153</v>
+        <v>11.936</v>
       </c>
       <c r="M80" t="n">
-        <v>0.06856</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N80" t="n">
-        <v>0.16256</v>
+        <v>0.16657</v>
       </c>
       <c r="O80" t="n">
-        <v>3802886000</v>
+        <v>4761524000</v>
       </c>
       <c r="P80" t="n">
-        <v>-1902186752</v>
+        <v>-1120767872</v>
       </c>
       <c r="Q80" t="n">
-        <v>1825417984</v>
+        <v>2038792960</v>
       </c>
       <c r="R80" t="n">
-        <v>0.247</v>
+        <v>0.304</v>
       </c>
       <c r="S80" t="n">
-        <v>0.63228</v>
+        <v>0.63097</v>
       </c>
       <c r="T80" t="n">
-        <v>0.34193</v>
+        <v>0.33785</v>
       </c>
       <c r="U80" t="n">
-        <v>0.33134997</v>
+        <v>0.32336</v>
       </c>
       <c r="V80" t="n">
-        <v>0.22990999</v>
+        <v>0.22483999</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -6932,7 +6934,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>1.281</v>
+        <v>0.16</v>
       </c>
       <c r="Y80" t="n">
         <v>302</v>
@@ -6948,7 +6950,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>1420930048</v>
@@ -7027,64 +7029,64 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>29.3</v>
+        <v>27.97</v>
       </c>
       <c r="D82" t="n">
-        <v>2541051904</v>
+        <v>2735764992</v>
       </c>
       <c r="E82" t="n">
-        <v>4.195</v>
+        <v>4.516</v>
       </c>
       <c r="F82" t="n">
-        <v>724404992</v>
+        <v>780219008</v>
       </c>
       <c r="G82" t="n">
-        <v>1717867008</v>
+        <v>1759542016</v>
       </c>
       <c r="H82" t="n">
-        <v>0.982</v>
+        <v>0.989</v>
       </c>
       <c r="I82" t="n">
-        <v>1.958</v>
+        <v>1.867</v>
       </c>
       <c r="J82" t="n">
-        <v>3898277888</v>
+        <v>3792932096</v>
       </c>
       <c r="K82" t="n">
-        <v>36.443</v>
+        <v>38.377</v>
       </c>
       <c r="L82" t="n">
-        <v>6.417</v>
+        <v>6.251</v>
       </c>
       <c r="M82" t="n">
-        <v>0.040949997</v>
+        <v>0.040430002</v>
       </c>
       <c r="N82" t="n">
-        <v>0.10775</v>
+        <v>0.11474</v>
       </c>
       <c r="O82" t="n">
-        <v>2226012000</v>
+        <v>2647663000</v>
       </c>
       <c r="P82" t="n">
-        <v>-444532992</v>
+        <v>-71523128</v>
       </c>
       <c r="Q82" t="n">
-        <v>653262016</v>
+        <v>915560000</v>
       </c>
       <c r="R82" t="n">
-        <v>0.248</v>
+        <v>0.213</v>
       </c>
       <c r="S82" t="n">
-        <v>0.68891996</v>
+        <v>0.6980499999999999</v>
       </c>
       <c r="T82" t="n">
-        <v>0.18583</v>
+        <v>0.2057</v>
       </c>
       <c r="U82" t="n">
-        <v>0.1683</v>
+        <v>0.17535</v>
       </c>
       <c r="V82" t="n">
-        <v>0.12081</v>
+        <v>0.13133</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7092,7 +7094,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.588</v>
+        <v>0.231</v>
       </c>
       <c r="Y82" t="n">
         <v>310</v>
@@ -7108,7 +7110,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7.52</v>
+        <v>6.61</v>
       </c>
       <c r="D83" t="n">
         <v>449566016</v>
@@ -7189,7 +7191,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="D84" t="n">
         <v>692872000</v>
@@ -7268,7 +7270,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
         <v>236056992</v>
@@ -7349,64 +7351,64 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10.96</v>
+        <v>12.27</v>
       </c>
       <c r="D86" t="n">
-        <v>3702824960</v>
+        <v>4739347968</v>
       </c>
       <c r="E86" t="n">
-        <v>1.323</v>
+        <v>1.959</v>
       </c>
       <c r="F86" t="n">
-        <v>5254429184</v>
+        <v>7331794944</v>
       </c>
       <c r="G86" t="n">
-        <v>17414680576</v>
+        <v>17801689088</v>
       </c>
       <c r="H86" t="n">
-        <v>0.791</v>
+        <v>0.717</v>
       </c>
       <c r="I86" t="n">
-        <v>0.905</v>
+        <v>0.79</v>
       </c>
       <c r="J86" t="n">
-        <v>20505886720</v>
+        <v>21530800128</v>
       </c>
       <c r="K86" t="n">
-        <v>68.84399999999999</v>
+        <v>70.093</v>
       </c>
       <c r="L86" t="n">
-        <v>8.473000000000001</v>
+        <v>8.897</v>
       </c>
       <c r="M86" t="n">
-        <v>0.04421</v>
+        <v>0.04048</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08602</v>
+        <v>0.06616</v>
       </c>
       <c r="O86" t="n">
-        <v>9615004000</v>
+        <v>10874820000</v>
       </c>
       <c r="P86" t="n">
-        <v>4623124480</v>
+        <v>3669670400</v>
       </c>
       <c r="Q86" t="n">
-        <v>9050212352</v>
+        <v>9429074944</v>
       </c>
       <c r="R86" t="n">
-        <v>0.244</v>
+        <v>0.214</v>
       </c>
       <c r="S86" t="n">
-        <v>0.51487</v>
+        <v>0.50508</v>
       </c>
       <c r="T86" t="n">
-        <v>0.25624</v>
+        <v>0.34053</v>
       </c>
       <c r="U86" t="n">
-        <v>0.17018</v>
+        <v>0.15979</v>
       </c>
       <c r="V86" t="n">
-        <v>0.10474</v>
+        <v>0.0776</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7414,7 +7416,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>-0.61</v>
+        <v>-0.47</v>
       </c>
       <c r="Y86" t="n">
         <v>327</v>
@@ -7430,64 +7432,64 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>38.36</v>
+        <v>39.43</v>
       </c>
       <c r="D87" t="n">
-        <v>6027122176</v>
+        <v>2274850048</v>
       </c>
       <c r="E87" t="n">
-        <v>3.615</v>
+        <v>1.367</v>
       </c>
       <c r="F87" t="n">
-        <v>13315888128</v>
+        <v>14635455488</v>
       </c>
       <c r="G87" t="n">
-        <v>19918716928</v>
+        <v>19465936896</v>
       </c>
       <c r="H87" t="n">
-        <v>0.732</v>
+        <v>0.639</v>
       </c>
       <c r="I87" t="n">
-        <v>0.851</v>
+        <v>0.78</v>
       </c>
       <c r="J87" t="n">
-        <v>46882865152</v>
+        <v>48041160704</v>
       </c>
       <c r="K87" t="n">
-        <v>28.807</v>
+        <v>28.436</v>
       </c>
       <c r="L87" t="n">
-        <v>28.007</v>
+        <v>28.753</v>
       </c>
       <c r="M87" t="n">
-        <v>0.02989</v>
+        <v>0.03662</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08026</v>
+        <v>0.05861</v>
       </c>
       <c r="O87" t="n">
-        <v>20955479000</v>
+        <v>22515040000</v>
       </c>
       <c r="P87" t="n">
-        <v>5816891904</v>
+        <v>6035766272</v>
       </c>
       <c r="Q87" t="n">
-        <v>18351706112</v>
+        <v>18941925376</v>
       </c>
       <c r="R87" t="n">
-        <v>0.106</v>
+        <v>0.101</v>
       </c>
       <c r="S87" t="n">
-        <v>0.46674</v>
+        <v>0.46866</v>
       </c>
       <c r="T87" t="n">
-        <v>0.28402</v>
+        <v>0.30464</v>
       </c>
       <c r="U87" t="n">
-        <v>0.12019</v>
+        <v>0.14318</v>
       </c>
       <c r="V87" t="n">
-        <v>0.1193</v>
+        <v>0.08503000400000001</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7495,7 +7497,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.101</v>
+        <v>-0.569</v>
       </c>
       <c r="Y87" t="n">
         <v>328</v>
@@ -7511,64 +7513,64 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>14.81</v>
+        <v>14.87</v>
       </c>
       <c r="D88" t="n">
-        <v>2980966912</v>
+        <v>3231305984</v>
       </c>
       <c r="E88" t="n">
-        <v>2.981</v>
+        <v>3.231</v>
       </c>
       <c r="F88" t="n">
-        <v>1722360064</v>
+        <v>1352834944</v>
       </c>
       <c r="G88" t="n">
-        <v>5809449984</v>
+        <v>5874521088</v>
       </c>
       <c r="H88" t="n">
-        <v>1.239</v>
+        <v>0.961</v>
       </c>
       <c r="I88" t="n">
-        <v>1.771</v>
+        <v>1.493</v>
       </c>
       <c r="J88" t="n">
-        <v>4798127104</v>
+        <v>5515705856</v>
       </c>
       <c r="K88" t="n">
-        <v>44.859</v>
+        <v>38.514</v>
       </c>
       <c r="L88" t="n">
-        <v>6.013</v>
+        <v>5.02</v>
       </c>
       <c r="M88" t="n">
-        <v>0.02905</v>
+        <v>0.01883</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01862</v>
+        <v>0.22047001</v>
       </c>
       <c r="O88" t="n">
-        <v>1391424000</v>
+        <v>1133376000</v>
       </c>
       <c r="P88" t="n">
-        <v>-551923968</v>
+        <v>-652914496</v>
       </c>
       <c r="Q88" t="n">
-        <v>353390016</v>
+        <v>416768992</v>
       </c>
       <c r="R88" t="n">
-        <v>1.497</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="S88" t="n">
-        <v>0.22069</v>
+        <v>0.20548001</v>
       </c>
       <c r="T88" t="n">
-        <v>0.35897</v>
+        <v>0.24527</v>
       </c>
       <c r="U88" t="n">
-        <v>0.23183</v>
+        <v>0.1416</v>
       </c>
       <c r="V88" t="n">
-        <v>0.04912</v>
+        <v>0.48487</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7576,7 +7578,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.306</v>
+        <v>46.461</v>
       </c>
       <c r="Y88" t="n">
         <v>332</v>
@@ -7592,7 +7594,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8.789999999999999</v>
+        <v>8.91</v>
       </c>
       <c r="D89" t="n">
         <v>1469512960</v>
@@ -7628,7 +7630,7 @@
         <v>0.18399</v>
       </c>
       <c r="O89" t="n">
-        <v>123373000</v>
+        <v>372434000</v>
       </c>
       <c r="P89" t="n">
         <v>-1627475072</v>
@@ -7667,11 +7669,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CASN4.SA</t>
+          <t>CASN3.SA</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>12.81</v>
       </c>
       <c r="D90" t="n">
         <v>72827000</v>
@@ -7739,7 +7741,7 @@
         <v>-0.284</v>
       </c>
       <c r="Y90" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91">
@@ -7748,68 +7750,68 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CASN3.SA</t>
+          <t>CEGR3.SA</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>12.81</v>
+        <v>89</v>
       </c>
       <c r="D91" t="n">
-        <v>72827000</v>
+        <v>370295008</v>
       </c>
       <c r="E91" t="n">
-        <v>0.077</v>
+        <v>1.497</v>
       </c>
       <c r="F91" t="n">
-        <v>310921984</v>
+        <v>990617024</v>
       </c>
       <c r="G91" t="n">
-        <v>1586560000</v>
+        <v>1241176064</v>
       </c>
       <c r="H91" t="n">
-        <v>0.601</v>
+        <v>1.034</v>
       </c>
       <c r="I91" t="n">
-        <v>0.83</v>
+        <v>1.038</v>
       </c>
       <c r="J91" t="n">
-        <v>1333794048</v>
+        <v>5821679104</v>
       </c>
       <c r="K91" t="n">
-        <v>85.872</v>
+        <v>94.334</v>
       </c>
       <c r="L91" t="n">
-        <v>1.404</v>
+        <v>22.343</v>
       </c>
       <c r="M91" t="n">
-        <v>0.03366</v>
+        <v>0.13545</v>
       </c>
       <c r="N91" t="n">
-        <v>0.05761</v>
+        <v>0.37572</v>
       </c>
       <c r="O91" t="n">
-        <v>604280000</v>
+        <v>1168411000</v>
       </c>
       <c r="P91" t="n">
-        <v>-271571136</v>
+        <v>286824640</v>
       </c>
       <c r="Q91" t="n">
-        <v>73252000</v>
+        <v>582510976</v>
       </c>
       <c r="R91" t="n">
-        <v>0.237</v>
+        <v>0.333</v>
       </c>
       <c r="S91" t="n">
-        <v>0.43675998</v>
+        <v>0.23263</v>
       </c>
       <c r="T91" t="n">
-        <v>0.23311001</v>
+        <v>0.17016001</v>
       </c>
       <c r="U91" t="n">
-        <v>0.16330999</v>
+        <v>0.14939</v>
       </c>
       <c r="V91" t="n">
-        <v>0.073130004</v>
+        <v>0.08317000400000001</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7817,10 +7819,10 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>-0.284</v>
+        <v>0.111</v>
       </c>
       <c r="Y91" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92">
@@ -7829,68 +7831,68 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CEGR3.SA</t>
+          <t>SAPR4.SA</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>89</v>
+        <v>3.43</v>
       </c>
       <c r="D92" t="n">
-        <v>370295008</v>
+        <v>1207932032</v>
       </c>
       <c r="E92" t="n">
-        <v>1.497</v>
+        <v>0.799</v>
       </c>
       <c r="F92" t="n">
-        <v>990617024</v>
+        <v>2242618112</v>
       </c>
       <c r="G92" t="n">
-        <v>1241176064</v>
+        <v>5083244032</v>
       </c>
       <c r="H92" t="n">
-        <v>1.034</v>
+        <v>1.444</v>
       </c>
       <c r="I92" t="n">
-        <v>1.038</v>
+        <v>1.516</v>
       </c>
       <c r="J92" t="n">
-        <v>5821679104</v>
+        <v>5673647104</v>
       </c>
       <c r="K92" t="n">
-        <v>94.334</v>
+        <v>57.85</v>
       </c>
       <c r="L92" t="n">
-        <v>22.343</v>
+        <v>3.754</v>
       </c>
       <c r="M92" t="n">
-        <v>0.13545</v>
+        <v>0.07507</v>
       </c>
       <c r="N92" t="n">
-        <v>0.37572</v>
+        <v>0.13863</v>
       </c>
       <c r="O92" t="n">
-        <v>1168411000</v>
+        <v>3290292000</v>
       </c>
       <c r="P92" t="n">
-        <v>286824640</v>
+        <v>-492450496</v>
       </c>
       <c r="Q92" t="n">
-        <v>582510976</v>
+        <v>1991254016</v>
       </c>
       <c r="R92" t="n">
-        <v>0.333</v>
+        <v>0.067</v>
       </c>
       <c r="S92" t="n">
-        <v>0.23263</v>
+        <v>0.57992</v>
       </c>
       <c r="T92" t="n">
-        <v>0.17016001</v>
+        <v>0.39527</v>
       </c>
       <c r="U92" t="n">
-        <v>0.14939</v>
+        <v>0.33128</v>
       </c>
       <c r="V92" t="n">
-        <v>0.08317000400000001</v>
+        <v>0.20296</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -7898,10 +7900,10 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.111</v>
+        <v>0.057</v>
       </c>
       <c r="Y92" t="n">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93">
@@ -7910,68 +7912,68 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SAPR4.SA</t>
+          <t>SAPR3.SA</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3.47</v>
+        <v>3.25</v>
       </c>
       <c r="D93" t="n">
-        <v>1227490944</v>
+        <v>1207932032</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.799</v>
       </c>
       <c r="F93" t="n">
-        <v>2213465088</v>
+        <v>2242618112</v>
       </c>
       <c r="G93" t="n">
-        <v>4909242880</v>
+        <v>5083244032</v>
       </c>
       <c r="H93" t="n">
-        <v>1.528</v>
+        <v>1.444</v>
       </c>
       <c r="I93" t="n">
-        <v>1.596</v>
+        <v>1.516</v>
       </c>
       <c r="J93" t="n">
-        <v>5581605888</v>
+        <v>5673647104</v>
       </c>
       <c r="K93" t="n">
-        <v>58.382</v>
+        <v>57.85</v>
       </c>
       <c r="L93" t="n">
-        <v>3.693</v>
+        <v>3.754</v>
       </c>
       <c r="M93" t="n">
-        <v>0.07789</v>
+        <v>0.07507</v>
       </c>
       <c r="N93" t="n">
-        <v>0.14169</v>
+        <v>0.13863</v>
       </c>
       <c r="O93" t="n">
-        <v>3153675000</v>
+        <v>3290292000</v>
       </c>
       <c r="P93" t="n">
-        <v>-394379616</v>
+        <v>-492450496</v>
       </c>
       <c r="Q93" t="n">
-        <v>1861529984</v>
+        <v>1991254016</v>
       </c>
       <c r="R93" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="S93" t="n">
-        <v>0.58557</v>
+        <v>0.57992</v>
       </c>
       <c r="T93" t="n">
-        <v>0.39655998</v>
+        <v>0.39527</v>
       </c>
       <c r="U93" t="n">
-        <v>0.34042</v>
+        <v>0.33128</v>
       </c>
       <c r="V93" t="n">
-        <v>0.20291</v>
+        <v>0.20296</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -7979,10 +7981,10 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.028</v>
+        <v>0.057</v>
       </c>
       <c r="Y93" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94">
@@ -7991,68 +7993,68 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SAPR3.SA</t>
+          <t>CGAS5.SA</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3.28</v>
+        <v>129.01</v>
       </c>
       <c r="D94" t="n">
-        <v>1227490944</v>
+        <v>2155312128</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8120000000000001</v>
+        <v>16.264</v>
       </c>
       <c r="F94" t="n">
-        <v>2213465088</v>
+        <v>3224496896</v>
       </c>
       <c r="G94" t="n">
-        <v>4909242880</v>
+        <v>7424176128</v>
       </c>
       <c r="H94" t="n">
-        <v>1.528</v>
+        <v>1.164</v>
       </c>
       <c r="I94" t="n">
-        <v>1.596</v>
+        <v>1.251</v>
       </c>
       <c r="J94" t="n">
-        <v>5581605888</v>
+        <v>17414152192</v>
       </c>
       <c r="K94" t="n">
-        <v>58.382</v>
+        <v>718.872</v>
       </c>
       <c r="L94" t="n">
-        <v>3.693</v>
+        <v>131.407</v>
       </c>
       <c r="M94" t="n">
-        <v>0.07789</v>
+        <v>0.13665</v>
       </c>
       <c r="N94" t="n">
-        <v>0.14169</v>
+        <v>1.69458</v>
       </c>
       <c r="O94" t="n">
-        <v>3153675000</v>
+        <v>3452047000</v>
       </c>
       <c r="P94" t="n">
-        <v>-394379616</v>
+        <v>42363500</v>
       </c>
       <c r="Q94" t="n">
-        <v>1861529984</v>
+        <v>3439486976</v>
       </c>
       <c r="R94" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.272</v>
       </c>
       <c r="S94" t="n">
-        <v>0.58557</v>
+        <v>0.19823</v>
       </c>
       <c r="T94" t="n">
-        <v>0.39655998</v>
+        <v>0.18517</v>
       </c>
       <c r="U94" t="n">
-        <v>0.34042</v>
+        <v>0.15654</v>
       </c>
       <c r="V94" t="n">
-        <v>0.20291</v>
+        <v>0.10402001</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8060,10 +8062,10 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.028</v>
+        <v>0.238</v>
       </c>
       <c r="Y94" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95">
@@ -8072,68 +8074,68 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CGAS5.SA</t>
+          <t>CGAS3.SA</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>127.09</v>
+        <v>125</v>
       </c>
       <c r="D95" t="n">
-        <v>2277190912</v>
+        <v>2155312128</v>
       </c>
       <c r="E95" t="n">
-        <v>17.184</v>
+        <v>16.264</v>
       </c>
       <c r="F95" t="n">
-        <v>3055856128</v>
+        <v>3224496896</v>
       </c>
       <c r="G95" t="n">
-        <v>6900969984</v>
+        <v>7424176128</v>
       </c>
       <c r="H95" t="n">
-        <v>1.512</v>
+        <v>1.164</v>
       </c>
       <c r="I95" t="n">
-        <v>1.638</v>
+        <v>1.251</v>
       </c>
       <c r="J95" t="n">
-        <v>16453123072</v>
+        <v>17414152192</v>
       </c>
       <c r="K95" t="n">
-        <v>414.789</v>
+        <v>718.872</v>
       </c>
       <c r="L95" t="n">
-        <v>124.155</v>
+        <v>131.407</v>
       </c>
       <c r="M95" t="n">
-        <v>0.12158</v>
+        <v>0.13665</v>
       </c>
       <c r="N95" t="n">
-        <v>0.90488</v>
+        <v>1.69458</v>
       </c>
       <c r="O95" t="n">
-        <v>3513261000</v>
+        <v>3452047000</v>
       </c>
       <c r="P95" t="n">
-        <v>-264892992</v>
+        <v>42363500</v>
       </c>
       <c r="Q95" t="n">
-        <v>3028624896</v>
+        <v>3439486976</v>
       </c>
       <c r="R95" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.272</v>
       </c>
       <c r="S95" t="n">
-        <v>0.23452999</v>
+        <v>0.19823</v>
       </c>
       <c r="T95" t="n">
-        <v>0.18573</v>
+        <v>0.18517</v>
       </c>
       <c r="U95" t="n">
-        <v>0.15653</v>
+        <v>0.15654</v>
       </c>
       <c r="V95" t="n">
-        <v>0.104169995</v>
+        <v>0.10402001</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8141,10 +8143,10 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>-0.305</v>
+        <v>0.238</v>
       </c>
       <c r="Y95" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96">
@@ -8153,68 +8155,68 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CGAS3.SA</t>
+          <t>EGIE3.SA</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>125</v>
+        <v>39.1</v>
       </c>
       <c r="D96" t="n">
-        <v>2277190912</v>
+        <v>2445815040</v>
       </c>
       <c r="E96" t="n">
-        <v>17.184</v>
+        <v>2.998</v>
       </c>
       <c r="F96" t="n">
-        <v>3055856128</v>
+        <v>6159306240</v>
       </c>
       <c r="G96" t="n">
-        <v>6900969984</v>
+        <v>18150475776</v>
       </c>
       <c r="H96" t="n">
-        <v>1.512</v>
+        <v>0.735</v>
       </c>
       <c r="I96" t="n">
-        <v>1.638</v>
+        <v>1.253</v>
       </c>
       <c r="J96" t="n">
-        <v>16453123072</v>
+        <v>11906605056</v>
       </c>
       <c r="K96" t="n">
-        <v>414.789</v>
+        <v>215.049</v>
       </c>
       <c r="L96" t="n">
-        <v>124.155</v>
+        <v>14.593</v>
       </c>
       <c r="M96" t="n">
-        <v>0.12158</v>
+        <v>0.08483</v>
       </c>
       <c r="N96" t="n">
-        <v>0.90488</v>
+        <v>0.32549</v>
       </c>
       <c r="O96" t="n">
-        <v>3513261000</v>
+        <v>5589193000</v>
       </c>
       <c r="P96" t="n">
-        <v>-264892992</v>
+        <v>858629120</v>
       </c>
       <c r="Q96" t="n">
-        <v>3028624896</v>
+        <v>3337492992</v>
       </c>
       <c r="R96" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="S96" t="n">
-        <v>0.23452999</v>
+        <v>0.46942002</v>
       </c>
       <c r="T96" t="n">
-        <v>0.18573</v>
+        <v>0.5173</v>
       </c>
       <c r="U96" t="n">
-        <v>0.15653</v>
+        <v>0.43491</v>
       </c>
       <c r="V96" t="n">
-        <v>0.104169995</v>
+        <v>0.22365999</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8222,10 +8224,10 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>-0.305</v>
+        <v>10.496</v>
       </c>
       <c r="Y96" t="n">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97">
@@ -8238,7 +8240,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>51.67</v>
+        <v>53.36</v>
       </c>
       <c r="D97" t="n">
         <v>3420652032</v>
